--- a/3 Model comparisons/mean_weight_balance/mean_C_balance/mean_val_df_C_balance.xlsx
+++ b/3 Model comparisons/mean_weight_balance/mean_C_balance/mean_val_df_C_balance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="595">
   <si>
     <t>window_left</t>
   </si>
@@ -37,1798 +37,1768 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Q99JB7__1</t>
-  </si>
-  <si>
-    <t>P01132__2</t>
-  </si>
-  <si>
-    <t>P48771__3</t>
-  </si>
-  <si>
-    <t>P57087__0</t>
-  </si>
-  <si>
-    <t>Q9BSE4__-3</t>
-  </si>
-  <si>
-    <t>Q15256__-3</t>
-  </si>
-  <si>
-    <t>Q9HC73__1</t>
-  </si>
-  <si>
-    <t>Q9NZR2__3</t>
-  </si>
-  <si>
-    <t>Q8VCD3__-2</t>
-  </si>
-  <si>
-    <t>Q8BWQ1__-1</t>
-  </si>
-  <si>
-    <t>Q9H2A7__2</t>
-  </si>
-  <si>
-    <t>Q99JS0__-2</t>
-  </si>
-  <si>
-    <t>Q96A28__-3</t>
-  </si>
-  <si>
-    <t>Q96RD9__-1</t>
-  </si>
-  <si>
-    <t>Q3V009__3</t>
-  </si>
-  <si>
-    <t>Q8CGK5__3</t>
-  </si>
-  <si>
-    <t>Q96RT6__-2</t>
-  </si>
-  <si>
-    <t>Q9HCJ2__-3</t>
-  </si>
-  <si>
-    <t>P10287__-2</t>
-  </si>
-  <si>
-    <t>Q8IW52__-2</t>
-  </si>
-  <si>
-    <t>Q8NFM7__-3</t>
-  </si>
-  <si>
-    <t>Q99MR9__-1</t>
-  </si>
-  <si>
-    <t>Q9P0T7__3</t>
-  </si>
-  <si>
-    <t>Q8C160__3</t>
-  </si>
-  <si>
-    <t>Q6TL19__-2</t>
-  </si>
-  <si>
-    <t>Q6UXL0__-1</t>
-  </si>
-  <si>
-    <t>Q9CQQ0__3</t>
-  </si>
-  <si>
-    <t>Q8IW00__-3</t>
-  </si>
-  <si>
-    <t>Q9BZL3__3</t>
-  </si>
-  <si>
-    <t>Q5T7P8__-3</t>
-  </si>
-  <si>
-    <t>Q9NR96__3</t>
-  </si>
-  <si>
-    <t>Q96RJ3__3</t>
-  </si>
-  <si>
-    <t>Q86YL7__-3</t>
-  </si>
-  <si>
-    <t>Q9DBX3__-3</t>
-  </si>
-  <si>
-    <t>Q16827__-2</t>
-  </si>
-  <si>
-    <t>Q9D387__3</t>
-  </si>
-  <si>
-    <t>Q8TEB7__-1</t>
-  </si>
-  <si>
-    <t>P09564__1</t>
-  </si>
-  <si>
-    <t>Q6PJW8__2</t>
-  </si>
-  <si>
-    <t>Q9QZS7__1</t>
-  </si>
-  <si>
-    <t>Q5VY43__2</t>
-  </si>
-  <si>
-    <t>E2RYF6__-2</t>
-  </si>
-  <si>
-    <t>Q62192__2</t>
-  </si>
-  <si>
-    <t>P43121__3</t>
-  </si>
-  <si>
-    <t>Q9WVT6__1</t>
-  </si>
-  <si>
-    <t>P01920__3</t>
-  </si>
-  <si>
-    <t>Q6UW60__1</t>
-  </si>
-  <si>
-    <t>Q3UMF9__-1</t>
-  </si>
-  <si>
-    <t>Q99KW9__-3</t>
-  </si>
-  <si>
-    <t>P59017__1</t>
-  </si>
-  <si>
-    <t>Q9H156__3</t>
-  </si>
-  <si>
-    <t>Q63373__3</t>
-  </si>
-  <si>
-    <t>O00206__3</t>
-  </si>
-  <si>
-    <t>P05555__-3</t>
-  </si>
-  <si>
-    <t>Q07113__-2</t>
-  </si>
-  <si>
-    <t>Q8BHB3__2</t>
+    <t>Q9WTP5__-1</t>
+  </si>
+  <si>
+    <t>Q9DA16__-2</t>
+  </si>
+  <si>
+    <t>Q9D2R4__0</t>
+  </si>
+  <si>
+    <t>Q9JLZ8__1</t>
+  </si>
+  <si>
+    <t>P33146__2</t>
+  </si>
+  <si>
+    <t>Q99JW5__0</t>
+  </si>
+  <si>
+    <t>P01889__3</t>
+  </si>
+  <si>
+    <t>Q05BQ1__0</t>
+  </si>
+  <si>
+    <t>Q8K249__1</t>
+  </si>
+  <si>
+    <t>Q13740__1</t>
+  </si>
+  <si>
+    <t>Q96PL5__2</t>
+  </si>
+  <si>
+    <t>P10912__-1</t>
+  </si>
+  <si>
+    <t>P14679__0</t>
+  </si>
+  <si>
+    <t>Q810U4__0</t>
+  </si>
+  <si>
+    <t>Q8N441__0</t>
+  </si>
+  <si>
+    <t>Q14626__2</t>
+  </si>
+  <si>
+    <t>Q9NPH3__-1</t>
+  </si>
+  <si>
+    <t>Q9ERS7__1</t>
+  </si>
+  <si>
+    <t>Q9BZ76__3</t>
+  </si>
+  <si>
+    <t>Q8VEG4__-2</t>
+  </si>
+  <si>
+    <t>Q810U3__0</t>
+  </si>
+  <si>
+    <t>Q8NER5__-1</t>
+  </si>
+  <si>
+    <t>P29016__-1</t>
+  </si>
+  <si>
+    <t>Q8BJ48__-1</t>
+  </si>
+  <si>
+    <t>Q9NR61__-1</t>
+  </si>
+  <si>
+    <t>B2RXS4__-3</t>
+  </si>
+  <si>
+    <t>I3L273__-2</t>
+  </si>
+  <si>
+    <t>Q96KV6__-1</t>
+  </si>
+  <si>
+    <t>P17643__-2</t>
+  </si>
+  <si>
+    <t>P70232__1</t>
+  </si>
+  <si>
+    <t>P14616__-1</t>
+  </si>
+  <si>
+    <t>Q7TMD7__-2</t>
+  </si>
+  <si>
+    <t>Q68D85__-2</t>
+  </si>
+  <si>
+    <t>P15529__0</t>
+  </si>
+  <si>
+    <t>Q6UWV2__0</t>
+  </si>
+  <si>
+    <t>P31955__2</t>
+  </si>
+  <si>
+    <t>P20645__0</t>
+  </si>
+  <si>
+    <t>B6A8R8__1</t>
+  </si>
+  <si>
+    <t>Q8N350__-1</t>
+  </si>
+  <si>
+    <t>O60500__0</t>
+  </si>
+  <si>
+    <t>Q96PE5__-3</t>
+  </si>
+  <si>
+    <t>Q8BHC0__-2</t>
+  </si>
+  <si>
+    <t>P24638__-2</t>
+  </si>
+  <si>
+    <t>Q8N3G9__1</t>
+  </si>
+  <si>
+    <t>Q8BJE2__2</t>
+  </si>
+  <si>
+    <t>Q4G0T1__-1</t>
+  </si>
+  <si>
+    <t>P58550__-2</t>
+  </si>
+  <si>
+    <t>Q24JP5__-1</t>
+  </si>
+  <si>
+    <t>Q12864__2</t>
+  </si>
+  <si>
+    <t>Q6UWB1__-2</t>
+  </si>
+  <si>
+    <t>P20333__-3</t>
+  </si>
+  <si>
+    <t>Q96D42__-3</t>
+  </si>
+  <si>
+    <t>Q9NQS3__-1</t>
+  </si>
+  <si>
+    <t>O43819__-1</t>
+  </si>
+  <si>
+    <t>O75054__0</t>
+  </si>
+  <si>
+    <t>Q6GTX8__-2</t>
+  </si>
+  <si>
+    <t>Q08ET2__1</t>
+  </si>
+  <si>
+    <t>Q9Y225__2</t>
+  </si>
+  <si>
+    <t>P09758__0</t>
+  </si>
+  <si>
+    <t>Q96LA5__-3</t>
+  </si>
+  <si>
+    <t>P11942__0</t>
+  </si>
+  <si>
+    <t>O43561__2</t>
+  </si>
+  <si>
+    <t>P59646__0</t>
+  </si>
+  <si>
+    <t>A0A0K2S4Q6__-1</t>
+  </si>
+  <si>
+    <t>P25445__0</t>
+  </si>
+  <si>
+    <t>A2A699__1</t>
+  </si>
+  <si>
+    <t>Q9C0A0__3</t>
+  </si>
+  <si>
+    <t>Q9BZZ2__1</t>
+  </si>
+  <si>
+    <t>Q9HAV5__-2</t>
+  </si>
+  <si>
+    <t>P14770__-2</t>
+  </si>
+  <si>
+    <t>Q29983__-2</t>
+  </si>
+  <si>
+    <t>Q3TEW6__-1</t>
+  </si>
+  <si>
+    <t>A0A1B0GTY4__2</t>
+  </si>
+  <si>
+    <t>Q8CBR1__1</t>
+  </si>
+  <si>
+    <t>O94933__3</t>
+  </si>
+  <si>
+    <t>Q15762__2</t>
+  </si>
+  <si>
+    <t>Q8BG84__0</t>
+  </si>
+  <si>
+    <t>Q8N8F7__1</t>
+  </si>
+  <si>
+    <t>Q9R1V6__3</t>
+  </si>
+  <si>
+    <t>Q14118__2</t>
+  </si>
+  <si>
+    <t>Q5XG73__1</t>
+  </si>
+  <si>
+    <t>Q9NZR2__-2</t>
+  </si>
+  <si>
+    <t>P18084__3</t>
+  </si>
+  <si>
+    <t>P07202__-1</t>
+  </si>
+  <si>
+    <t>Q64735__-3</t>
+  </si>
+  <si>
+    <t>P26951__3</t>
+  </si>
+  <si>
+    <t>Q12907__1</t>
+  </si>
+  <si>
+    <t>Q6PEX7__1</t>
+  </si>
+  <si>
+    <t>Q9UIK5__0</t>
+  </si>
+  <si>
+    <t>Q91XY4__0</t>
+  </si>
+  <si>
+    <t>Q01973__-2</t>
+  </si>
+  <si>
+    <t>P26010__0</t>
+  </si>
+  <si>
+    <t>Q02505__3</t>
+  </si>
+  <si>
+    <t>Q9R069__-1</t>
+  </si>
+  <si>
+    <t>Q3TTY0__1</t>
+  </si>
+  <si>
+    <t>P11942__-1</t>
+  </si>
+  <si>
+    <t>Q8BRJ3__2</t>
+  </si>
+  <si>
+    <t>P51693__1</t>
+  </si>
+  <si>
+    <t>Q8N3G9__2</t>
+  </si>
+  <si>
+    <t>Q8IV45__1</t>
+  </si>
+  <si>
+    <t>Q9CZN4__-2</t>
+  </si>
+  <si>
+    <t>Q9BQS7__2</t>
+  </si>
+  <si>
+    <t>A6NMS7__-1</t>
+  </si>
+  <si>
+    <t>P14406__2</t>
+  </si>
+  <si>
+    <t>A0PJX4__-1</t>
+  </si>
+  <si>
+    <t>Q15884__-2</t>
+  </si>
+  <si>
+    <t>Q03157__-2</t>
+  </si>
+  <si>
+    <t>O08644__-2</t>
+  </si>
+  <si>
+    <t>P0C6S8__-2</t>
+  </si>
+  <si>
+    <t>Q9NZJ5__-1</t>
+  </si>
+  <si>
+    <t>Q99JS0__2</t>
+  </si>
+  <si>
+    <t>P13762__0</t>
+  </si>
+  <si>
+    <t>Q62312__1</t>
+  </si>
+  <si>
+    <t>Q9WTL4__-1</t>
+  </si>
+  <si>
+    <t>Q99JB7__0</t>
+  </si>
+  <si>
+    <t>Q9BX59__-1</t>
+  </si>
+  <si>
+    <t>Q92729__1</t>
+  </si>
+  <si>
+    <t>P16092__-1</t>
+  </si>
+  <si>
+    <t>P50283__-3</t>
+  </si>
+  <si>
+    <t>P20645__1</t>
+  </si>
+  <si>
+    <t>Q9Y493__2</t>
+  </si>
+  <si>
+    <t>Q05996__2</t>
+  </si>
+  <si>
+    <t>Q9Y5G1__-1</t>
+  </si>
+  <si>
+    <t>Q07113__1</t>
+  </si>
+  <si>
+    <t>Q7Z6M3__3</t>
+  </si>
+  <si>
+    <t>Q5VYJ5__1</t>
+  </si>
+  <si>
+    <t>Q00342__-2</t>
+  </si>
+  <si>
+    <t>P31809__1</t>
+  </si>
+  <si>
+    <t>Q14773__2</t>
+  </si>
+  <si>
+    <t>Q9ERS2__-3</t>
+  </si>
+  <si>
+    <t>Q7TMJ8__3</t>
+  </si>
+  <si>
+    <t>P31695__1</t>
+  </si>
+  <si>
+    <t>Q68SN8__-1</t>
+  </si>
+  <si>
+    <t>Q6UXV1__-3</t>
+  </si>
+  <si>
+    <t>A2A699__-1</t>
+  </si>
+  <si>
+    <t>Q8IVU1__0</t>
+  </si>
+  <si>
+    <t>P14679__-2</t>
+  </si>
+  <si>
+    <t>Q8VD58__1</t>
+  </si>
+  <si>
+    <t>Q08708__-3</t>
+  </si>
+  <si>
+    <t>P36896__0</t>
+  </si>
+  <si>
+    <t>Q9EQU3__-3</t>
+  </si>
+  <si>
+    <t>Q9UQC9__1</t>
+  </si>
+  <si>
+    <t>P51511__-2</t>
   </si>
   <si>
     <t>D3YZF7__-3</t>
   </si>
   <si>
-    <t>Q8VI56__1</t>
-  </si>
-  <si>
-    <t>Q9R0H2__2</t>
-  </si>
-  <si>
-    <t>Q9NRX6__-2</t>
-  </si>
-  <si>
-    <t>Q3U128__-2</t>
-  </si>
-  <si>
-    <t>Q9D5T0__1</t>
-  </si>
-  <si>
-    <t>Q7Z7D3__-3</t>
-  </si>
-  <si>
-    <t>Q9DA04__2</t>
-  </si>
-  <si>
-    <t>Q15375__2</t>
-  </si>
-  <si>
-    <t>Q9H7M9__3</t>
-  </si>
-  <si>
-    <t>Q8N1Y9__-1</t>
-  </si>
-  <si>
-    <t>Q92854__-2</t>
-  </si>
-  <si>
-    <t>Q9C0I4__-1</t>
-  </si>
-  <si>
-    <t>Q9BZV3__-1</t>
-  </si>
-  <si>
-    <t>Q76HP3__1</t>
-  </si>
-  <si>
-    <t>Q6PI73__-3</t>
-  </si>
-  <si>
-    <t>Q8N131__-3</t>
-  </si>
-  <si>
-    <t>P37023__0</t>
-  </si>
-  <si>
-    <t>Q7L985__3</t>
-  </si>
-  <si>
-    <t>P42702__-2</t>
+    <t>P08922__0</t>
+  </si>
+  <si>
+    <t>P60852__-2</t>
+  </si>
+  <si>
+    <t>Q15262__0</t>
+  </si>
+  <si>
+    <t>Q96PJ5__0</t>
+  </si>
+  <si>
+    <t>Q3TZW0__-3</t>
+  </si>
+  <si>
+    <t>P14426__2</t>
+  </si>
+  <si>
+    <t>P20333__2</t>
+  </si>
+  <si>
+    <t>Q5SQ64__2</t>
+  </si>
+  <si>
+    <t>Q6MZM0__2</t>
+  </si>
+  <si>
+    <t>Q8N1Y9__-2</t>
+  </si>
+  <si>
+    <t>B6A8C7__0</t>
+  </si>
+  <si>
+    <t>Q9H2U9__-1</t>
+  </si>
+  <si>
+    <t>Q9Y5Y7__-1</t>
+  </si>
+  <si>
+    <t>Q9D4V6__-3</t>
+  </si>
+  <si>
+    <t>P04224__1</t>
+  </si>
+  <si>
+    <t>P31996__2</t>
+  </si>
+  <si>
+    <t>Q8K410__0</t>
+  </si>
+  <si>
+    <t>Q96LU7__1</t>
+  </si>
+  <si>
+    <t>Q3U497__-1</t>
+  </si>
+  <si>
+    <t>Q8NER5__-3</t>
+  </si>
+  <si>
+    <t>Q13641__0</t>
+  </si>
+  <si>
+    <t>Q9BTN0__1</t>
+  </si>
+  <si>
+    <t>Q01974__1</t>
+  </si>
+  <si>
+    <t>P28828__1</t>
+  </si>
+  <si>
+    <t>Q9JJB9__1</t>
+  </si>
+  <si>
+    <t>Q9BZL3__-2</t>
+  </si>
+  <si>
+    <t>Q6UXD5__1</t>
+  </si>
+  <si>
+    <t>P14209__-2</t>
+  </si>
+  <si>
+    <t>Q96LL3__-1</t>
+  </si>
+  <si>
+    <t>P70387__-1</t>
+  </si>
+  <si>
+    <t>P19070__0</t>
+  </si>
+  <si>
+    <t>O88792__-1</t>
+  </si>
+  <si>
+    <t>P14778__1</t>
+  </si>
+  <si>
+    <t>Q91V98__2</t>
+  </si>
+  <si>
+    <t>Q9R0N5__1</t>
+  </si>
+  <si>
+    <t>A2AJA7__1</t>
+  </si>
+  <si>
+    <t>Q96BF3__-2</t>
+  </si>
+  <si>
+    <t>Q6UX15__0</t>
+  </si>
+  <si>
+    <t>Q9NP99__-2</t>
+  </si>
+  <si>
+    <t>P04228__2</t>
+  </si>
+  <si>
+    <t>P55082__-2</t>
+  </si>
+  <si>
+    <t>O09126__-3</t>
+  </si>
+  <si>
+    <t>Q921W8__-2</t>
+  </si>
+  <si>
+    <t>Q9BY71__1</t>
+  </si>
+  <si>
+    <t>P20352__-1</t>
+  </si>
+  <si>
+    <t>P97484__0</t>
+  </si>
+  <si>
+    <t>Q9HD87__-3</t>
+  </si>
+  <si>
+    <t>Q8BHK6__2</t>
+  </si>
+  <si>
+    <t>P11627__0</t>
+  </si>
+  <si>
+    <t>P06133__0</t>
   </si>
   <si>
     <t>Q9Z0F8__-1</t>
   </si>
   <si>
-    <t>O08747__1</t>
-  </si>
-  <si>
-    <t>Q91WC3__-3</t>
-  </si>
-  <si>
-    <t>Q92673__2</t>
-  </si>
-  <si>
-    <t>Q13683__3</t>
-  </si>
-  <si>
-    <t>P57105__-2</t>
-  </si>
-  <si>
-    <t>Q9P2E7__-3</t>
-  </si>
-  <si>
-    <t>Q810U4__-2</t>
-  </si>
-  <si>
-    <t>Q8N967__-3</t>
-  </si>
-  <si>
-    <t>Q61527__-3</t>
-  </si>
-  <si>
-    <t>P29317__3</t>
-  </si>
-  <si>
-    <t>A2RUT3__-1</t>
-  </si>
-  <si>
-    <t>Q9ULT6__3</t>
-  </si>
-  <si>
-    <t>P57105__3</t>
-  </si>
-  <si>
-    <t>P13473__-3</t>
-  </si>
-  <si>
-    <t>P04235__-3</t>
-  </si>
-  <si>
-    <t>O55022__1</t>
-  </si>
-  <si>
-    <t>P07202__-1</t>
-  </si>
-  <si>
-    <t>Q767I8__-3</t>
-  </si>
-  <si>
-    <t>Q9QZ26__-3</t>
-  </si>
-  <si>
-    <t>Q3URE8__2</t>
-  </si>
-  <si>
-    <t>P28908__-2</t>
-  </si>
-  <si>
-    <t>Q9UM73__-3</t>
-  </si>
-  <si>
-    <t>A0A1B0GU29__2</t>
-  </si>
-  <si>
-    <t>Q9UN70__-3</t>
-  </si>
-  <si>
-    <t>Q6UXG2__3</t>
-  </si>
-  <si>
-    <t>P13762__-3</t>
-  </si>
-  <si>
-    <t>P04439__-1</t>
-  </si>
-  <si>
-    <t>Q8R0X7__-2</t>
-  </si>
-  <si>
-    <t>P37023__3</t>
-  </si>
-  <si>
-    <t>Q9BYE9__3</t>
-  </si>
-  <si>
-    <t>Q9QYE5__-1</t>
-  </si>
-  <si>
-    <t>Q02242__-2</t>
-  </si>
-  <si>
-    <t>P13688__-2</t>
-  </si>
-  <si>
-    <t>Q8VD31__-2</t>
-  </si>
-  <si>
-    <t>Q9UNE0__-2</t>
-  </si>
-  <si>
-    <t>Q9H251__3</t>
-  </si>
-  <si>
-    <t>Q63155__-2</t>
-  </si>
-  <si>
-    <t>Q6A051__2</t>
-  </si>
-  <si>
-    <t>Q2WGJ9__-2</t>
-  </si>
-  <si>
-    <t>P13591__3</t>
-  </si>
-  <si>
-    <t>P51511__3</t>
-  </si>
-  <si>
-    <t>Q7TST5__0</t>
-  </si>
-  <si>
-    <t>Q64695__0</t>
-  </si>
-  <si>
-    <t>O75077__3</t>
-  </si>
-  <si>
-    <t>Q86YW5__-1</t>
-  </si>
-  <si>
-    <t>O95167__3</t>
-  </si>
-  <si>
-    <t>O15239__3</t>
-  </si>
-  <si>
-    <t>O00453__3</t>
-  </si>
-  <si>
-    <t>Q8CB67__-3</t>
-  </si>
-  <si>
-    <t>Q64735__3</t>
-  </si>
-  <si>
-    <t>Q8TCW7__-3</t>
-  </si>
-  <si>
-    <t>Q9Y4D7__-3</t>
-  </si>
-  <si>
-    <t>P0C6T2__-2</t>
-  </si>
-  <si>
-    <t>P36894__-1</t>
-  </si>
-  <si>
-    <t>O08914__1</t>
-  </si>
-  <si>
-    <t>A6NFU0__-1</t>
-  </si>
-  <si>
-    <t>O75880__1</t>
-  </si>
-  <si>
-    <t>Q8N114__-3</t>
-  </si>
-  <si>
-    <t>P25445__-3</t>
-  </si>
-  <si>
-    <t>A2RUT3__-2</t>
-  </si>
-  <si>
-    <t>Q16671__1</t>
-  </si>
-  <si>
-    <t>P05555__2</t>
-  </si>
-  <si>
-    <t>Q7Z4F1__0</t>
-  </si>
-  <si>
-    <t>Q62556__1</t>
-  </si>
-  <si>
-    <t>P53690__-3</t>
-  </si>
-  <si>
-    <t>P34741__3</t>
-  </si>
-  <si>
-    <t>Q9Y6D0__2</t>
-  </si>
-  <si>
-    <t>Q8K201__-2</t>
-  </si>
-  <si>
-    <t>Q5TEA6__-2</t>
-  </si>
-  <si>
-    <t>P01901__2</t>
-  </si>
-  <si>
-    <t>O95237__-3</t>
-  </si>
-  <si>
-    <t>Q9D9M0__-3</t>
-  </si>
-  <si>
-    <t>G3XA59__3</t>
-  </si>
-  <si>
-    <t>Q9Z239__-3</t>
-  </si>
-  <si>
-    <t>P29319__2</t>
-  </si>
-  <si>
-    <t>Q9DBV4__-2</t>
-  </si>
-  <si>
-    <t>Q07011__1</t>
-  </si>
-  <si>
-    <t>Q6P1D5__-2</t>
-  </si>
-  <si>
-    <t>Q3SY77__3</t>
-  </si>
-  <si>
-    <t>B5TVM2__3</t>
-  </si>
-  <si>
-    <t>Q6NT55__-3</t>
-  </si>
-  <si>
-    <t>O08747__-3</t>
-  </si>
-  <si>
-    <t>Q9H665__1</t>
-  </si>
-  <si>
-    <t>E9Q7X6__-1</t>
-  </si>
-  <si>
-    <t>A0A1B0GW64__3</t>
-  </si>
-  <si>
-    <t>Q61190__3</t>
-  </si>
-  <si>
-    <t>P51841__3</t>
-  </si>
-  <si>
-    <t>A0A1B0GUA5__2</t>
-  </si>
-  <si>
-    <t>Q9D8D0__1</t>
-  </si>
-  <si>
-    <t>O60939__-2</t>
-  </si>
-  <si>
-    <t>Q96EX1__-2</t>
-  </si>
-  <si>
-    <t>Q9BXR5__1</t>
-  </si>
-  <si>
-    <t>Q9CQ91__-2</t>
-  </si>
-  <si>
-    <t>Q86UQ5__-2</t>
-  </si>
-  <si>
-    <t>Q80X80__-3</t>
-  </si>
-  <si>
-    <t>Q9WUH7__3</t>
-  </si>
-  <si>
-    <t>Q96QU1__-3</t>
-  </si>
-  <si>
-    <t>P09619__0</t>
-  </si>
-  <si>
-    <t>Q53EL9__-3</t>
-  </si>
-  <si>
-    <t>Q9H400__-1</t>
-  </si>
-  <si>
-    <t>Q9BZD7__3</t>
-  </si>
-  <si>
-    <t>P08581__-3</t>
-  </si>
-  <si>
-    <t>Q9D3R5__-3</t>
-  </si>
-  <si>
-    <t>Q8VD58__3</t>
-  </si>
-  <si>
-    <t>Q8WZ04__-1</t>
-  </si>
-  <si>
-    <t>P20138__1</t>
-  </si>
-  <si>
-    <t>Q01887__3</t>
-  </si>
-  <si>
-    <t>Q9ERS7__2</t>
-  </si>
-  <si>
-    <t>Q9BZG2__2</t>
-  </si>
-  <si>
-    <t>Q86YT9__3</t>
-  </si>
-  <si>
-    <t>Q96P31__-2</t>
-  </si>
-  <si>
-    <t>Q80T14__-3</t>
-  </si>
-  <si>
-    <t>P01906__-3</t>
-  </si>
-  <si>
-    <t>O54991__3</t>
-  </si>
-  <si>
-    <t>P53690__3</t>
-  </si>
-  <si>
-    <t>Q01638__-2</t>
-  </si>
-  <si>
-    <t>P36894__2</t>
-  </si>
-  <si>
-    <t>Q8NI17__2</t>
-  </si>
-  <si>
-    <t>Q8R182__-3</t>
-  </si>
-  <si>
-    <t>Q9BQD7__-3</t>
-  </si>
-  <si>
-    <t>P23468__3</t>
-  </si>
-  <si>
-    <t>Q15388__-3</t>
-  </si>
-  <si>
-    <t>P05555__3</t>
+    <t>A6NJW9__1</t>
+  </si>
+  <si>
+    <t>P29376__2</t>
+  </si>
+  <si>
+    <t>P06342__2</t>
+  </si>
+  <si>
+    <t>Q9NPH3__2</t>
+  </si>
+  <si>
+    <t>P35546__-3</t>
+  </si>
+  <si>
+    <t>ALLI</t>
+  </si>
+  <si>
+    <t>VILI</t>
+  </si>
+  <si>
+    <t>FQMK</t>
+  </si>
+  <si>
+    <t>LYVK</t>
+  </si>
+  <si>
+    <t>ALRT</t>
+  </si>
+  <si>
+    <t>VLVI</t>
+  </si>
+  <si>
+    <t>VMCR</t>
+  </si>
+  <si>
+    <t>ACLM</t>
+  </si>
+  <si>
+    <t>FWVN</t>
+  </si>
+  <si>
+    <t>WLYM</t>
+  </si>
+  <si>
+    <t>LIWK</t>
+  </si>
+  <si>
+    <t>FVFL</t>
+  </si>
+  <si>
+    <t>LVSL</t>
+  </si>
+  <si>
+    <t>VCFI</t>
+  </si>
+  <si>
+    <t>LWLC</t>
+  </si>
+  <si>
+    <t>LWLR</t>
+  </si>
+  <si>
+    <t>YHVY</t>
+  </si>
+  <si>
+    <t>NSFK</t>
+  </si>
+  <si>
+    <t>RIYQ</t>
+  </si>
+  <si>
+    <t>VLWK</t>
+  </si>
+  <si>
+    <t>TVWA</t>
+  </si>
+  <si>
+    <t>LALW</t>
+  </si>
+  <si>
+    <t>VSLF</t>
+  </si>
+  <si>
+    <t>MVAV</t>
+  </si>
+  <si>
+    <t>VVSI</t>
+  </si>
+  <si>
+    <t>VLLW</t>
+  </si>
+  <si>
+    <t>ICIY</t>
+  </si>
+  <si>
+    <t>TASY</t>
+  </si>
+  <si>
+    <t>CFVK</t>
+  </si>
+  <si>
+    <t>LGFF</t>
+  </si>
+  <si>
+    <t>PLLL</t>
+  </si>
+  <si>
+    <t>VLIP</t>
+  </si>
+  <si>
+    <t>VVPY</t>
+  </si>
+  <si>
+    <t>LLLV</t>
+  </si>
+  <si>
+    <t>ITVH</t>
+  </si>
+  <si>
+    <t>GFLY</t>
+  </si>
+  <si>
+    <t>AWHS</t>
+  </si>
+  <si>
+    <t>SGVL</t>
+  </si>
+  <si>
+    <t>GGVL</t>
+  </si>
+  <si>
+    <t>ALLF</t>
+  </si>
+  <si>
+    <t>LAVC</t>
+  </si>
+  <si>
+    <t>LLTI</t>
+  </si>
+  <si>
+    <t>MTLR</t>
+  </si>
+  <si>
+    <t>LRYF</t>
+  </si>
+  <si>
+    <t>LMAF</t>
+  </si>
+  <si>
+    <t>SCHL</t>
+  </si>
+  <si>
+    <t>VVFV</t>
+  </si>
+  <si>
+    <t>FIRI</t>
+  </si>
+  <si>
+    <t>GLSL</t>
+  </si>
+  <si>
+    <t>GVVN</t>
+  </si>
+  <si>
+    <t>LLGV</t>
+  </si>
+  <si>
+    <t>LAGI</t>
+  </si>
+  <si>
+    <t>WLAL</t>
+  </si>
+  <si>
+    <t>ILLV</t>
+  </si>
+  <si>
+    <t>LVLF</t>
+  </si>
+  <si>
+    <t>IYYT</t>
+  </si>
+  <si>
+    <t>YLIR</t>
+  </si>
+  <si>
+    <t>LLLY</t>
+  </si>
+  <si>
+    <t>YLIA</t>
+  </si>
+  <si>
+    <t>CVHC</t>
+  </si>
+  <si>
+    <t>VLSG</t>
+  </si>
+  <si>
+    <t>GAIL</t>
+  </si>
+  <si>
+    <t>VWVK</t>
+  </si>
+  <si>
+    <t>LLIY</t>
+  </si>
+  <si>
+    <t>ACYT</t>
+  </si>
+  <si>
+    <t>GLFF</t>
+  </si>
+  <si>
+    <t>LAGL</t>
+  </si>
+  <si>
+    <t>IIFY</t>
+  </si>
+  <si>
+    <t>VLVV</t>
+  </si>
+  <si>
+    <t>YLWK</t>
+  </si>
+  <si>
+    <t>IGVC</t>
+  </si>
+  <si>
+    <t>YVLR</t>
+  </si>
+  <si>
+    <t>IFLN</t>
+  </si>
+  <si>
+    <t>FCFL</t>
+  </si>
+  <si>
+    <t>FLIV</t>
+  </si>
+  <si>
+    <t>WGYK</t>
+  </si>
+  <si>
+    <t>ICYR</t>
+  </si>
+  <si>
+    <t>LYYQ</t>
+  </si>
+  <si>
+    <t>IGLV</t>
+  </si>
+  <si>
+    <t>LVTI</t>
+  </si>
+  <si>
+    <t>STVI</t>
+  </si>
+  <si>
+    <t>VFIW</t>
+  </si>
+  <si>
+    <t>RRYL</t>
+  </si>
+  <si>
+    <t>VVFQ</t>
+  </si>
+  <si>
+    <t>IFLH</t>
+  </si>
+  <si>
+    <t>VLCI</t>
+  </si>
+  <si>
+    <t>VLLI</t>
+  </si>
+  <si>
+    <t>LFFF</t>
+  </si>
+  <si>
+    <t>LAYR</t>
+  </si>
+  <si>
+    <t>RAVR</t>
+  </si>
+  <si>
+    <t>AAFY</t>
+  </si>
+  <si>
+    <t>MLWR</t>
+  </si>
+  <si>
+    <t>VYLI</t>
+  </si>
+  <si>
+    <t>HVLK</t>
+  </si>
+  <si>
+    <t>LLLR</t>
+  </si>
+  <si>
+    <t>TLRN</t>
+  </si>
+  <si>
+    <t>QCLR</t>
+  </si>
+  <si>
+    <t>VGIF</t>
+  </si>
+  <si>
+    <t>VWYQ</t>
+  </si>
+  <si>
+    <t>CLIV</t>
+  </si>
+  <si>
+    <t>AVAS</t>
+  </si>
+  <si>
+    <t>VVAI</t>
+  </si>
+  <si>
+    <t>VAAA</t>
+  </si>
+  <si>
+    <t>LSLL</t>
+  </si>
+  <si>
+    <t>VLAV</t>
+  </si>
+  <si>
+    <t>FVLL</t>
+  </si>
+  <si>
+    <t>TFIV</t>
+  </si>
+  <si>
+    <t>LLKM</t>
+  </si>
+  <si>
+    <t>FIYF</t>
+  </si>
+  <si>
+    <t>YCYR</t>
+  </si>
+  <si>
+    <t>LLLL</t>
+  </si>
+  <si>
+    <t>MFLG</t>
+  </si>
+  <si>
+    <t>VIIR</t>
+  </si>
+  <si>
+    <t>SVII</t>
+  </si>
+  <si>
+    <t>GVVC</t>
+  </si>
+  <si>
+    <t>FLYQ</t>
+  </si>
+  <si>
+    <t>RECI</t>
+  </si>
+  <si>
+    <t>YLYE</t>
+  </si>
+  <si>
+    <t>ILAI</t>
   </si>
   <si>
     <t>LLLH</t>
   </si>
   <si>
-    <t>TYYY</t>
-  </si>
-  <si>
-    <t>MAAF</t>
-  </si>
-  <si>
-    <t>GVCY</t>
-  </si>
-  <si>
-    <t>AMLL</t>
-  </si>
-  <si>
-    <t>TCLM</t>
-  </si>
-  <si>
-    <t>SLWK</t>
-  </si>
-  <si>
-    <t>CKRK</t>
-  </si>
-  <si>
-    <t>FFCY</t>
-  </si>
-  <si>
-    <t>FCLF</t>
-  </si>
-  <si>
-    <t>VLCK</t>
-  </si>
-  <si>
-    <t>LVLI</t>
-  </si>
-  <si>
-    <t>AMGL</t>
-  </si>
-  <si>
-    <t>LLYC</t>
-  </si>
-  <si>
-    <t>KRFF</t>
-  </si>
-  <si>
-    <t>WKIM</t>
-  </si>
-  <si>
-    <t>AVLF</t>
-  </si>
-  <si>
-    <t>VMLV</t>
-  </si>
-  <si>
-    <t>ALLL</t>
-  </si>
-  <si>
-    <t>CLLV</t>
-  </si>
-  <si>
-    <t>ATLF</t>
-  </si>
-  <si>
-    <t>LYWL</t>
-  </si>
-  <si>
-    <t>LVDP</t>
-  </si>
-  <si>
-    <t>QLPS</t>
-  </si>
-  <si>
-    <t>ITGL</t>
-  </si>
-  <si>
-    <t>VPLF</t>
-  </si>
-  <si>
-    <t>HATQ</t>
-  </si>
-  <si>
-    <t>FMLV</t>
-  </si>
-  <si>
-    <t>ATAV</t>
-  </si>
-  <si>
-    <t>VFLF</t>
-  </si>
-  <si>
-    <t>LCGW</t>
-  </si>
-  <si>
-    <t>VSWR</t>
-  </si>
-  <si>
-    <t>GAII</t>
-  </si>
-  <si>
-    <t>SIIY</t>
-  </si>
-  <si>
-    <t>LVTL</t>
-  </si>
-  <si>
-    <t>HHKM</t>
-  </si>
-  <si>
-    <t>GYFI</t>
-  </si>
-  <si>
-    <t>VLAR</t>
-  </si>
-  <si>
-    <t>ALYC</t>
-  </si>
-  <si>
-    <t>LLWR</t>
-  </si>
-  <si>
-    <t>IGYR</t>
-  </si>
-  <si>
-    <t>VGLS</t>
-  </si>
-  <si>
-    <t>AVKY</t>
-  </si>
-  <si>
-    <t>FLYK</t>
-  </si>
-  <si>
-    <t>FIAQ</t>
-  </si>
-  <si>
-    <t>HHRS</t>
-  </si>
-  <si>
-    <t>MSMD</t>
-  </si>
-  <si>
-    <t>ELLV</t>
-  </si>
-  <si>
-    <t>ILAI</t>
-  </si>
-  <si>
-    <t>ALRR</t>
-  </si>
-  <si>
-    <t>VLKR</t>
-  </si>
-  <si>
-    <t>YKYR</t>
-  </si>
-  <si>
-    <t>YFHL</t>
-  </si>
-  <si>
-    <t>TAGL</t>
-  </si>
-  <si>
-    <t>LLAL</t>
-  </si>
-  <si>
-    <t>SWKK</t>
+    <t>LPKY</t>
+  </si>
+  <si>
+    <t>CFLA</t>
+  </si>
+  <si>
+    <t>IVLI</t>
+  </si>
+  <si>
+    <t>FLYS</t>
+  </si>
+  <si>
+    <t>LCKC</t>
+  </si>
+  <si>
+    <t>FGYW</t>
+  </si>
+  <si>
+    <t>YTYK</t>
+  </si>
+  <si>
+    <t>LVLQ</t>
+  </si>
+  <si>
+    <t>FYCW</t>
+  </si>
+  <si>
+    <t>VIVV</t>
+  </si>
+  <si>
+    <t>LCLL</t>
+  </si>
+  <si>
+    <t>FLLF</t>
+  </si>
+  <si>
+    <t>AGLV</t>
+  </si>
+  <si>
+    <t>ILWK</t>
+  </si>
+  <si>
+    <t>LGAV</t>
+  </si>
+  <si>
+    <t>FLVI</t>
+  </si>
+  <si>
+    <t>PILH</t>
+  </si>
+  <si>
+    <t>THHT</t>
+  </si>
+  <si>
+    <t>LTYA</t>
   </si>
   <si>
     <t>ILCI</t>
   </si>
   <si>
-    <t>LMLY</t>
-  </si>
-  <si>
-    <t>LYRI</t>
-  </si>
-  <si>
-    <t>AFYV</t>
-  </si>
-  <si>
-    <t>HWRI</t>
-  </si>
-  <si>
-    <t>MVDA</t>
-  </si>
-  <si>
-    <t>LSPY</t>
-  </si>
-  <si>
-    <t>IVHR</t>
-  </si>
-  <si>
-    <t>IIGR</t>
-  </si>
-  <si>
-    <t>YKQR</t>
-  </si>
-  <si>
-    <t>FTLI</t>
-  </si>
-  <si>
-    <t>FFYN</t>
-  </si>
-  <si>
-    <t>FTSY</t>
-  </si>
-  <si>
-    <t>IYFF</t>
-  </si>
-  <si>
-    <t>VTFA</t>
-  </si>
-  <si>
-    <t>LGIL</t>
-  </si>
-  <si>
-    <t>LYIG</t>
-  </si>
-  <si>
-    <t>LGLW</t>
-  </si>
-  <si>
-    <t>VWSR</t>
-  </si>
-  <si>
-    <t>VVTS</t>
+    <t>TFVW</t>
+  </si>
+  <si>
+    <t>GVFV</t>
+  </si>
+  <si>
+    <t>ILIV</t>
+  </si>
+  <si>
+    <t>IILV</t>
+  </si>
+  <si>
+    <t>FVMM</t>
+  </si>
+  <si>
+    <t>VIMT</t>
+  </si>
+  <si>
+    <t>VLWR</t>
+  </si>
+  <si>
+    <t>SLRL</t>
+  </si>
+  <si>
+    <t>LFTL</t>
+  </si>
+  <si>
+    <t>EAWY</t>
+  </si>
+  <si>
+    <t>LILL</t>
+  </si>
+  <si>
+    <t>LGFC</t>
+  </si>
+  <si>
+    <t>SYCV</t>
+  </si>
+  <si>
+    <t>IMKG</t>
+  </si>
+  <si>
+    <t>CITR</t>
+  </si>
+  <si>
+    <t>GTGW</t>
+  </si>
+  <si>
+    <t>YILS</t>
+  </si>
+  <si>
+    <t>AVLW</t>
+  </si>
+  <si>
+    <t>MLTV</t>
+  </si>
+  <si>
+    <t>VLYL</t>
+  </si>
+  <si>
+    <t>LLMR</t>
+  </si>
+  <si>
+    <t>FLVC</t>
+  </si>
+  <si>
+    <t>LVMK</t>
+  </si>
+  <si>
+    <t>INVS</t>
+  </si>
+  <si>
+    <t>LLLC</t>
+  </si>
+  <si>
+    <t>ISSF</t>
+  </si>
+  <si>
+    <t>FQFC</t>
+  </si>
+  <si>
+    <t>LFLI</t>
+  </si>
+  <si>
+    <t>CMIL</t>
+  </si>
+  <si>
+    <t>GVWF</t>
+  </si>
+  <si>
+    <t>KIFK</t>
+  </si>
+  <si>
+    <t>YCTR</t>
+  </si>
+  <si>
+    <t>CLYR</t>
+  </si>
+  <si>
+    <t>LGGW</t>
+  </si>
+  <si>
+    <t>VWGA</t>
+  </si>
+  <si>
+    <t>CWVW</t>
+  </si>
+  <si>
+    <t>VLFA</t>
+  </si>
+  <si>
+    <t>IIQG</t>
+  </si>
+  <si>
+    <t>LNVT</t>
+  </si>
+  <si>
+    <t>LFSY</t>
+  </si>
+  <si>
+    <t>ITFI</t>
+  </si>
+  <si>
+    <t>YYVR</t>
+  </si>
+  <si>
+    <t>LSIS</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>LWLW</t>
+  </si>
+  <si>
+    <t>FHTT</t>
+  </si>
+  <si>
+    <t>LCFI</t>
+  </si>
+  <si>
+    <t>LFCV</t>
   </si>
   <si>
     <t>SILV</t>
   </si>
   <si>
-    <t>LFVY</t>
-  </si>
-  <si>
-    <t>VLAY</t>
-  </si>
-  <si>
-    <t>LYTK</t>
-  </si>
-  <si>
-    <t>WKMG</t>
-  </si>
-  <si>
-    <t>AWAF</t>
-  </si>
-  <si>
-    <t>LAMI</t>
-  </si>
-  <si>
-    <t>LIVC</t>
-  </si>
-  <si>
-    <t>VVAA</t>
-  </si>
-  <si>
-    <t>ALTF</t>
-  </si>
-  <si>
-    <t>IHRR</t>
-  </si>
-  <si>
-    <t>CRKI</t>
-  </si>
-  <si>
-    <t>KIKL</t>
-  </si>
-  <si>
-    <t>RYRQ</t>
-  </si>
-  <si>
-    <t>VLLA</t>
-  </si>
-  <si>
-    <t>LGVY</t>
-  </si>
-  <si>
-    <t>LYKI</t>
-  </si>
-  <si>
-    <t>STVI</t>
-  </si>
-  <si>
-    <t>VLTL</t>
-  </si>
-  <si>
-    <t>GGLI</t>
-  </si>
-  <si>
-    <t>FKIL</t>
-  </si>
-  <si>
-    <t>SAFL</t>
-  </si>
-  <si>
-    <t>AFSG</t>
+    <t>MHLC</t>
+  </si>
+  <si>
+    <t>ILVK</t>
+  </si>
+  <si>
+    <t>FIRH</t>
+  </si>
+  <si>
+    <t>YWLE</t>
+  </si>
+  <si>
+    <t>LSIF</t>
+  </si>
+  <si>
+    <t>LTLR</t>
+  </si>
+  <si>
+    <t>AACT</t>
+  </si>
+  <si>
+    <t>HLKD</t>
+  </si>
+  <si>
+    <t>CRLN</t>
+  </si>
+  <si>
+    <t>RFRG</t>
+  </si>
+  <si>
+    <t>STRK</t>
+  </si>
+  <si>
+    <t>RKSS</t>
+  </si>
+  <si>
+    <t>NRRR</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>KKSK</t>
+  </si>
+  <si>
+    <t>QRRA</t>
+  </si>
+  <si>
+    <t>FSKQ</t>
+  </si>
+  <si>
+    <t>LCRH</t>
+  </si>
+  <si>
+    <t>RRNK</t>
+  </si>
+  <si>
+    <t>QAQK</t>
+  </si>
+  <si>
+    <t>LRRG</t>
+  </si>
+  <si>
+    <t>WLEM</t>
+  </si>
+  <si>
+    <t>IDIM</t>
+  </si>
+  <si>
+    <t>QRKL</t>
+  </si>
+  <si>
+    <t>GIQR</t>
+  </si>
+  <si>
+    <t>KRSR</t>
+  </si>
+  <si>
+    <t>CQGR</t>
+  </si>
+  <si>
+    <t>YMRR</t>
+  </si>
+  <si>
+    <t>LGSR</t>
+  </si>
+  <si>
+    <t>AVRQ</t>
+  </si>
+  <si>
+    <t>YCYW</t>
+  </si>
+  <si>
+    <t>WINN</t>
+  </si>
+  <si>
+    <t>LIRA</t>
+  </si>
+  <si>
+    <t>RNRG</t>
+  </si>
+  <si>
+    <t>YGKK</t>
+  </si>
+  <si>
+    <t>LMCC</t>
+  </si>
+  <si>
+    <t>WKKI</t>
+  </si>
+  <si>
+    <t>RYLQ</t>
+  </si>
+  <si>
+    <t>RMGR</t>
+  </si>
+  <si>
+    <t>LWKR</t>
+  </si>
+  <si>
+    <t>QRLV</t>
+  </si>
+  <si>
+    <t>ERLS</t>
+  </si>
+  <si>
+    <t>LLCK</t>
+  </si>
+  <si>
+    <t>WQRR</t>
+  </si>
+  <si>
+    <t>TLIH</t>
+  </si>
+  <si>
+    <t>YVKR</t>
+  </si>
+  <si>
+    <t>LFRM</t>
+  </si>
+  <si>
+    <t>NATQ</t>
+  </si>
+  <si>
+    <t>YKLR</t>
+  </si>
+  <si>
+    <t>LILP</t>
+  </si>
+  <si>
+    <t>LSHR</t>
+  </si>
+  <si>
+    <t>LRYQ</t>
+  </si>
+  <si>
+    <t>KKDK</t>
+  </si>
+  <si>
+    <t>ATSG</t>
+  </si>
+  <si>
+    <t>CVIM</t>
+  </si>
+  <si>
+    <t>IIAK</t>
+  </si>
+  <si>
+    <t>FCYR</t>
+  </si>
+  <si>
+    <t>RAEK</t>
+  </si>
+  <si>
+    <t>RFKS</t>
+  </si>
+  <si>
+    <t>CLHR</t>
+  </si>
+  <si>
+    <t>RCGG</t>
+  </si>
+  <si>
+    <t>LRHQ</t>
+  </si>
+  <si>
+    <t>TNRR</t>
+  </si>
+  <si>
+    <t>ALFH</t>
+  </si>
+  <si>
+    <t>GQDG</t>
+  </si>
+  <si>
+    <t>HRLP</t>
+  </si>
+  <si>
+    <t>KCKC</t>
+  </si>
+  <si>
+    <t>WVNR</t>
+  </si>
+  <si>
+    <t>RKEV</t>
+  </si>
+  <si>
+    <t>YCRR</t>
+  </si>
+  <si>
+    <t>QKRL</t>
+  </si>
+  <si>
+    <t>WRRR</t>
+  </si>
+  <si>
+    <t>LYCK</t>
+  </si>
+  <si>
+    <t>LCAT</t>
+  </si>
+  <si>
+    <t>VRCC</t>
   </si>
   <si>
     <t>LYRR</t>
   </si>
   <si>
-    <t>VFGV</t>
-  </si>
-  <si>
-    <t>FWKK</t>
-  </si>
-  <si>
-    <t>TGLF</t>
-  </si>
-  <si>
-    <t>AAVM</t>
-  </si>
-  <si>
-    <t>VYEL</t>
-  </si>
-  <si>
-    <t>WHVR</t>
-  </si>
-  <si>
-    <t>CVRK</t>
-  </si>
-  <si>
-    <t>VICV</t>
-  </si>
-  <si>
-    <t>WALA</t>
-  </si>
-  <si>
-    <t>LACF</t>
-  </si>
-  <si>
-    <t>LFLG</t>
-  </si>
-  <si>
-    <t>IMFY</t>
-  </si>
-  <si>
-    <t>MNWY</t>
-  </si>
-  <si>
-    <t>IVAV</t>
-  </si>
-  <si>
-    <t>VWKI</t>
-  </si>
-  <si>
-    <t>LFIY</t>
-  </si>
-  <si>
-    <t>FLNK</t>
-  </si>
-  <si>
-    <t>VQMQ</t>
-  </si>
-  <si>
-    <t>SVYK</t>
-  </si>
-  <si>
-    <t>IFMC</t>
-  </si>
-  <si>
-    <t>GFKN</t>
-  </si>
-  <si>
-    <t>VLFA</t>
-  </si>
-  <si>
-    <t>FKYS</t>
-  </si>
-  <si>
-    <t>IHRF</t>
-  </si>
-  <si>
-    <t>WLHR</t>
-  </si>
-  <si>
-    <t>LMVT</t>
-  </si>
-  <si>
-    <t>LKYK</t>
-  </si>
-  <si>
-    <t>LLCS</t>
-  </si>
-  <si>
-    <t>VVAL</t>
-  </si>
-  <si>
-    <t>VLYH</t>
-  </si>
-  <si>
-    <t>SSCF</t>
-  </si>
-  <si>
-    <t>VVLR</t>
-  </si>
-  <si>
-    <t>IHFC</t>
-  </si>
-  <si>
-    <t>HVKK</t>
-  </si>
-  <si>
-    <t>IIIC</t>
-  </si>
-  <si>
-    <t>PLIV</t>
+    <t>KWKK</t>
+  </si>
+  <si>
+    <t>WCQC</t>
+  </si>
+  <si>
+    <t>RRRK</t>
+  </si>
+  <si>
+    <t>RRRR</t>
+  </si>
+  <si>
+    <t>RHRQ</t>
+  </si>
+  <si>
+    <t>QTGN</t>
+  </si>
+  <si>
+    <t>NYRE</t>
+  </si>
+  <si>
+    <t>KKRK</t>
+  </si>
+  <si>
+    <t>LCKR</t>
+  </si>
+  <si>
+    <t>HDRR</t>
+  </si>
+  <si>
+    <t>CRWT</t>
+  </si>
+  <si>
+    <t>MILK</t>
+  </si>
+  <si>
+    <t>VMQR</t>
+  </si>
+  <si>
+    <t>KRQE</t>
+  </si>
+  <si>
+    <t>WRKN</t>
+  </si>
+  <si>
+    <t>TRKC</t>
+  </si>
+  <si>
+    <t>HRLR</t>
+  </si>
+  <si>
+    <t>ICVC</t>
+  </si>
+  <si>
+    <t>LSVE</t>
+  </si>
+  <si>
+    <t>SGWW</t>
+  </si>
+  <si>
+    <t>CMRR</t>
+  </si>
+  <si>
+    <t>TVKP</t>
+  </si>
+  <si>
+    <t>AGQD</t>
+  </si>
+  <si>
+    <t>KKGY</t>
+  </si>
+  <si>
+    <t>RKKP</t>
+  </si>
+  <si>
+    <t>ATQQ</t>
+  </si>
+  <si>
+    <t>WHCP</t>
+  </si>
+  <si>
+    <t>TKLG</t>
+  </si>
+  <si>
+    <t>HRQR</t>
+  </si>
+  <si>
+    <t>ICCH</t>
+  </si>
+  <si>
+    <t>FPKK</t>
+  </si>
+  <si>
+    <t>YCCT</t>
+  </si>
+  <si>
+    <t>LRYL</t>
+  </si>
+  <si>
+    <t>LLRK</t>
+  </si>
+  <si>
+    <t>IFQR</t>
+  </si>
+  <si>
+    <t>FVWS</t>
+  </si>
+  <si>
+    <t>RRLF</t>
+  </si>
+  <si>
+    <t>YNRR</t>
+  </si>
+  <si>
+    <t>RNQK</t>
+  </si>
+  <si>
+    <t>VHRQ</t>
+  </si>
+  <si>
+    <t>YSRK</t>
+  </si>
+  <si>
+    <t>HRSG</t>
+  </si>
+  <si>
+    <t>LQRR</t>
+  </si>
+  <si>
+    <t>KGRD</t>
+  </si>
+  <si>
+    <t>YKMK</t>
+  </si>
+  <si>
+    <t>SMLR</t>
+  </si>
+  <si>
+    <t>RLVV</t>
+  </si>
+  <si>
+    <t>YRTR</t>
+  </si>
+  <si>
+    <t>KRTV</t>
+  </si>
+  <si>
+    <t>KKER</t>
+  </si>
+  <si>
+    <t>KTRK</t>
+  </si>
+  <si>
+    <t>NRKV</t>
+  </si>
+  <si>
+    <t>CHKY</t>
+  </si>
+  <si>
+    <t>RKSG</t>
+  </si>
+  <si>
+    <t>LAMK</t>
+  </si>
+  <si>
+    <t>RMMR</t>
+  </si>
+  <si>
+    <t>RGKD</t>
+  </si>
+  <si>
+    <t>LIRR</t>
+  </si>
+  <si>
+    <t>FSRK</t>
+  </si>
+  <si>
+    <t>SACT</t>
+  </si>
+  <si>
+    <t>IYYC</t>
+  </si>
+  <si>
+    <t>GQRG</t>
+  </si>
+  <si>
+    <t>SLLC</t>
+  </si>
+  <si>
+    <t>YLRK</t>
+  </si>
+  <si>
+    <t>LWVN</t>
+  </si>
+  <si>
+    <t>NYHQ</t>
+  </si>
+  <si>
+    <t>HLCG</t>
+  </si>
+  <si>
+    <t>LSRK</t>
+  </si>
+  <si>
+    <t>LVQM</t>
+  </si>
+  <si>
+    <t>CCLR</t>
+  </si>
+  <si>
+    <t>HRRL</t>
+  </si>
+  <si>
+    <t>GLSQ</t>
+  </si>
+  <si>
+    <t>HCWR</t>
+  </si>
+  <si>
+    <t>SVVS</t>
+  </si>
+  <si>
+    <t>MRRN</t>
+  </si>
+  <si>
+    <t>QVKK</t>
+  </si>
+  <si>
+    <t>QRVR</t>
+  </si>
+  <si>
+    <t>CSAM</t>
+  </si>
+  <si>
+    <t>IAPD</t>
+  </si>
+  <si>
+    <t>SRNV</t>
+  </si>
+  <si>
+    <t>VRYR</t>
+  </si>
+  <si>
+    <t>YLDW</t>
+  </si>
+  <si>
+    <t>IKKR</t>
+  </si>
+  <si>
+    <t>RRQS</t>
+  </si>
+  <si>
+    <t>KGLK</t>
+  </si>
+  <si>
+    <t>LKDQ</t>
+  </si>
+  <si>
+    <t>LKRS</t>
+  </si>
+  <si>
+    <t>WACQ</t>
+  </si>
+  <si>
+    <t>NRKG</t>
+  </si>
+  <si>
+    <t>YKVH</t>
+  </si>
+  <si>
+    <t>MCRN</t>
+  </si>
+  <si>
+    <t>KRKL</t>
+  </si>
+  <si>
+    <t>TDMR</t>
+  </si>
+  <si>
+    <t>PATA</t>
+  </si>
+  <si>
+    <t>KLQG</t>
+  </si>
+  <si>
+    <t>IAYQ</t>
+  </si>
+  <si>
+    <t>THIN</t>
+  </si>
+  <si>
+    <t>LRKR</t>
+  </si>
+  <si>
+    <t>KHRE</t>
+  </si>
+  <si>
+    <t>AYSR</t>
+  </si>
+  <si>
+    <t>IDIV</t>
+  </si>
+  <si>
+    <t>CGSH</t>
+  </si>
+  <si>
+    <t>KRCR</t>
+  </si>
+  <si>
+    <t>HWLQ</t>
+  </si>
+  <si>
+    <t>WFWG</t>
   </si>
   <si>
     <t>ICRK</t>
   </si>
   <si>
-    <t>ALLQ</t>
-  </si>
-  <si>
-    <t>KLGF</t>
-  </si>
-  <si>
-    <t>GCTC</t>
-  </si>
-  <si>
-    <t>IFFT</t>
-  </si>
-  <si>
-    <t>GLAV</t>
-  </si>
-  <si>
-    <t>YRMR</t>
-  </si>
-  <si>
-    <t>LLQQ</t>
-  </si>
-  <si>
-    <t>VVYV</t>
-  </si>
-  <si>
-    <t>LILL</t>
-  </si>
-  <si>
-    <t>VMKM</t>
-  </si>
-  <si>
-    <t>IFIP</t>
-  </si>
-  <si>
-    <t>YFVM</t>
-  </si>
-  <si>
-    <t>CFLR</t>
-  </si>
-  <si>
-    <t>GILI</t>
-  </si>
-  <si>
-    <t>VGRF</t>
-  </si>
-  <si>
-    <t>TVVL</t>
-  </si>
-  <si>
-    <t>SVVK</t>
-  </si>
-  <si>
-    <t>GAYI</t>
-  </si>
-  <si>
-    <t>AVWW</t>
-  </si>
-  <si>
-    <t>CWCQ</t>
-  </si>
-  <si>
-    <t>FRLL</t>
-  </si>
-  <si>
-    <t>VVVA</t>
-  </si>
-  <si>
-    <t>ILLW</t>
-  </si>
-  <si>
-    <t>VALI</t>
-  </si>
-  <si>
-    <t>GPRL</t>
-  </si>
-  <si>
-    <t>LWLI</t>
-  </si>
-  <si>
-    <t>IRRR</t>
-  </si>
-  <si>
-    <t>GCQL</t>
-  </si>
-  <si>
-    <t>SLVS</t>
-  </si>
-  <si>
-    <t>LVLM</t>
-  </si>
-  <si>
-    <t>GYHL</t>
-  </si>
-  <si>
-    <t>CCLH</t>
-  </si>
-  <si>
-    <t>PMIS</t>
-  </si>
-  <si>
-    <t>YACV</t>
-  </si>
-  <si>
-    <t>TVLG</t>
-  </si>
-  <si>
-    <t>ACLK</t>
-  </si>
-  <si>
-    <t>AILV</t>
-  </si>
-  <si>
-    <t>LIML</t>
-  </si>
-  <si>
-    <t>VGGV</t>
-  </si>
-  <si>
-    <t>SLWA</t>
-  </si>
-  <si>
-    <t>WRCQ</t>
-  </si>
-  <si>
-    <t>LGFF</t>
-  </si>
-  <si>
-    <t>ITIH</t>
-  </si>
-  <si>
-    <t>WKYL</t>
-  </si>
-  <si>
-    <t>LLVR</t>
-  </si>
-  <si>
-    <t>FIVK</t>
-  </si>
-  <si>
-    <t>LHLH</t>
-  </si>
-  <si>
-    <t>SFKI</t>
-  </si>
-  <si>
-    <t>LAWR</t>
-  </si>
-  <si>
-    <t>VKKT</t>
-  </si>
-  <si>
-    <t>AAAL</t>
-  </si>
-  <si>
-    <t>FLVA</t>
-  </si>
-  <si>
-    <t>VGTV</t>
-  </si>
-  <si>
-    <t>LQNH</t>
-  </si>
-  <si>
-    <t>FRRH</t>
-  </si>
-  <si>
-    <t>VLVI</t>
-  </si>
-  <si>
-    <t>FCYK</t>
-  </si>
-  <si>
-    <t>GLKK</t>
-  </si>
-  <si>
-    <t>LGAF</t>
-  </si>
-  <si>
-    <t>AVWA</t>
-  </si>
-  <si>
-    <t>YKRK</t>
-  </si>
-  <si>
-    <t>GYCI</t>
-  </si>
-  <si>
-    <t>RSGR</t>
-  </si>
-  <si>
-    <t>RTRK</t>
-  </si>
-  <si>
-    <t>PKKQ</t>
-  </si>
-  <si>
-    <t>AQRK</t>
-  </si>
-  <si>
-    <t>VYLH</t>
-  </si>
-  <si>
-    <t>ILYR</t>
-  </si>
-  <si>
-    <t>LWRV</t>
-  </si>
-  <si>
-    <t>RRTK</t>
-  </si>
-  <si>
-    <t>VNFS</t>
-  </si>
-  <si>
-    <t>VCQK</t>
-  </si>
-  <si>
-    <t>RRRG</t>
-  </si>
-  <si>
-    <t>LLKM</t>
-  </si>
-  <si>
-    <t>WVIR</t>
-  </si>
-  <si>
-    <t>WLSR</t>
-  </si>
-  <si>
-    <t>HDKR</t>
-  </si>
-  <si>
-    <t>KGNP</t>
-  </si>
-  <si>
-    <t>LWRS</t>
-  </si>
-  <si>
-    <t>IFYK</t>
-  </si>
-  <si>
-    <t>LVRK</t>
-  </si>
-  <si>
-    <t>FVLR</t>
-  </si>
-  <si>
-    <t>TVMC</t>
-  </si>
-  <si>
-    <t>YWEG</t>
-  </si>
-  <si>
-    <t>LIRK</t>
-  </si>
-  <si>
-    <t>GQMA</t>
-  </si>
-  <si>
-    <t>MLWR</t>
-  </si>
-  <si>
-    <t>VWKM</t>
-  </si>
-  <si>
-    <t>ENRK</t>
-  </si>
-  <si>
-    <t>IVWQ</t>
-  </si>
-  <si>
-    <t>IIYR</t>
-  </si>
-  <si>
-    <t>LFWK</t>
-  </si>
-  <si>
-    <t>DLWY</t>
-  </si>
-  <si>
-    <t>RRQR</t>
-  </si>
-  <si>
-    <t>VVVM</t>
-  </si>
-  <si>
-    <t>MMLH</t>
-  </si>
-  <si>
-    <t>IILR</t>
-  </si>
-  <si>
-    <t>TANQ</t>
-  </si>
-  <si>
-    <t>FYSA</t>
-  </si>
-  <si>
-    <t>TQIK</t>
-  </si>
-  <si>
-    <t>TFGD</t>
-  </si>
-  <si>
-    <t>RRLR</t>
-  </si>
-  <si>
-    <t>HWQK</t>
-  </si>
-  <si>
-    <t>FCLR</t>
-  </si>
-  <si>
-    <t>FLRW</t>
-  </si>
-  <si>
-    <t>KGKL</t>
-  </si>
-  <si>
-    <t>KIRK</t>
-  </si>
-  <si>
-    <t>QKGL</t>
-  </si>
-  <si>
-    <t>LPLY</t>
-  </si>
-  <si>
-    <t>IRKQ</t>
-  </si>
-  <si>
-    <t>IAIL</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>RKGV</t>
-  </si>
-  <si>
-    <t>NRDE</t>
-  </si>
-  <si>
-    <t>MLLA</t>
-  </si>
-  <si>
-    <t>YKLG</t>
-  </si>
-  <si>
-    <t>LLHK</t>
-  </si>
-  <si>
-    <t>QKKR</t>
-  </si>
-  <si>
-    <t>CCLR</t>
-  </si>
-  <si>
-    <t>RHRK</t>
-  </si>
-  <si>
-    <t>CWKR</t>
-  </si>
-  <si>
-    <t>LFIK</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>IDPT</t>
-  </si>
-  <si>
-    <t>LMLK</t>
-  </si>
-  <si>
-    <t>WRAK</t>
-  </si>
-  <si>
-    <t>RHCG</t>
-  </si>
-  <si>
-    <t>QAAS</t>
-  </si>
-  <si>
-    <t>APDL</t>
-  </si>
-  <si>
-    <t>CYKG</t>
-  </si>
-  <si>
-    <t>LVCK</t>
-  </si>
-  <si>
-    <t>IRTL</t>
-  </si>
-  <si>
-    <t>LKYR</t>
-  </si>
-  <si>
-    <t>LFEA</t>
-  </si>
-  <si>
-    <t>CKMY</t>
-  </si>
-  <si>
-    <t>HVRR</t>
-  </si>
-  <si>
-    <t>GKGK</t>
-  </si>
-  <si>
-    <t>ILCY</t>
+    <t>VTLR</t>
+  </si>
+  <si>
+    <t>LRSG</t>
+  </si>
+  <si>
+    <t>RLCM</t>
+  </si>
+  <si>
+    <t>NCYK</t>
+  </si>
+  <si>
+    <t>YYRH</t>
+  </si>
+  <si>
+    <t>HNQE</t>
+  </si>
+  <si>
+    <t>RRRH</t>
+  </si>
+  <si>
+    <t>KQFL</t>
+  </si>
+  <si>
+    <t>WIKK</t>
+  </si>
+  <si>
+    <t>KRSK</t>
+  </si>
+  <si>
+    <t>WKFV</t>
   </si>
   <si>
     <t>HCVD</t>
   </si>
   <si>
-    <t>RKNH</t>
-  </si>
-  <si>
-    <t>WLTH</t>
-  </si>
-  <si>
-    <t>HRRL</t>
-  </si>
-  <si>
-    <t>FFKR</t>
-  </si>
-  <si>
-    <t>MRYR</t>
-  </si>
-  <si>
-    <t>VLAV</t>
-  </si>
-  <si>
-    <t>FIRR</t>
-  </si>
-  <si>
-    <t>AYGC</t>
-  </si>
-  <si>
-    <t>AVYV</t>
-  </si>
-  <si>
-    <t>RKNQ</t>
-  </si>
-  <si>
-    <t>LQGR</t>
-  </si>
-  <si>
-    <t>KQRR</t>
-  </si>
-  <si>
-    <t>QL</t>
-  </si>
-  <si>
-    <t>YFIG</t>
-  </si>
-  <si>
-    <t>CFAG</t>
-  </si>
-  <si>
-    <t>VRGD</t>
-  </si>
-  <si>
-    <t>CRWT</t>
-  </si>
-  <si>
-    <t>LLYS</t>
-  </si>
-  <si>
-    <t>LAYT</t>
-  </si>
-  <si>
-    <t>LDPY</t>
-  </si>
-  <si>
-    <t>LCHR</t>
-  </si>
-  <si>
-    <t>IMIV</t>
-  </si>
-  <si>
-    <t>CKSP</t>
-  </si>
-  <si>
-    <t>IIFK</t>
-  </si>
-  <si>
-    <t>NQKL</t>
-  </si>
-  <si>
-    <t>IYFR</t>
-  </si>
-  <si>
-    <t>WRRK</t>
-  </si>
-  <si>
-    <t>IFQP</t>
-  </si>
-  <si>
-    <t>RRQE</t>
-  </si>
-  <si>
-    <t>SYNR</t>
-  </si>
-  <si>
-    <t>WWTR</t>
-  </si>
-  <si>
-    <t>VFCS</t>
-  </si>
-  <si>
-    <t>LHFG</t>
-  </si>
-  <si>
-    <t>LHRQ</t>
-  </si>
-  <si>
-    <t>ILKT</t>
-  </si>
-  <si>
-    <t>YRTV</t>
-  </si>
-  <si>
-    <t>ICTR</t>
-  </si>
-  <si>
-    <t>KQTC</t>
-  </si>
-  <si>
-    <t>TLPG</t>
-  </si>
-  <si>
-    <t>CGLF</t>
-  </si>
-  <si>
-    <t>RKGA</t>
-  </si>
-  <si>
-    <t>IRQR</t>
-  </si>
-  <si>
-    <t>TSGR</t>
-  </si>
-  <si>
-    <t>VKKR</t>
-  </si>
-  <si>
-    <t>VMAK</t>
-  </si>
-  <si>
-    <t>VMIN</t>
-  </si>
-  <si>
-    <t>TNGG</t>
-  </si>
-  <si>
-    <t>RVKR</t>
-  </si>
-  <si>
-    <t>CRLR</t>
-  </si>
-  <si>
-    <t>KRNT</t>
-  </si>
-  <si>
-    <t>LALL</t>
-  </si>
-  <si>
-    <t>FVFC</t>
-  </si>
-  <si>
-    <t>YVAV</t>
-  </si>
-  <si>
-    <t>CYKH</t>
-  </si>
-  <si>
-    <t>WTRS</t>
-  </si>
-  <si>
-    <t>RCCC</t>
-  </si>
-  <si>
-    <t>EKAE</t>
-  </si>
-  <si>
-    <t>FTCS</t>
-  </si>
-  <si>
-    <t>WVKR</t>
-  </si>
-  <si>
-    <t>ILQG</t>
-  </si>
-  <si>
-    <t>RKNY</t>
-  </si>
-  <si>
-    <t>FKRQ</t>
-  </si>
-  <si>
-    <t>KLYA</t>
-  </si>
-  <si>
-    <t>WKLY</t>
-  </si>
-  <si>
-    <t>FFFR</t>
-  </si>
-  <si>
-    <t>KKDE</t>
-  </si>
-  <si>
-    <t>DVKK</t>
-  </si>
-  <si>
-    <t>TYHN</t>
-  </si>
-  <si>
-    <t>LRNH</t>
-  </si>
-  <si>
-    <t>RRRN</t>
-  </si>
-  <si>
-    <t>FFLW</t>
-  </si>
-  <si>
-    <t>FLLT</t>
-  </si>
-  <si>
-    <t>RQKL</t>
-  </si>
-  <si>
-    <t>ILSK</t>
-  </si>
-  <si>
-    <t>CGYH</t>
-  </si>
-  <si>
-    <t>ATRY</t>
-  </si>
-  <si>
-    <t>RGRK</t>
-  </si>
-  <si>
-    <t>YVTR</t>
-  </si>
-  <si>
-    <t>LRGA</t>
-  </si>
-  <si>
-    <t>CCPH</t>
-  </si>
-  <si>
-    <t>LRFL</t>
-  </si>
-  <si>
-    <t>HLCW</t>
-  </si>
-  <si>
-    <t>VTCC</t>
-  </si>
-  <si>
-    <t>HQGH</t>
-  </si>
-  <si>
-    <t>YKKT</t>
-  </si>
-  <si>
-    <t>INKI</t>
-  </si>
-  <si>
-    <t>RHSA</t>
-  </si>
-  <si>
-    <t>WRWR</t>
-  </si>
-  <si>
-    <t>VVKC</t>
-  </si>
-  <si>
-    <t>EWFI</t>
-  </si>
-  <si>
-    <t>FDLP</t>
-  </si>
-  <si>
-    <t>PYTK</t>
-  </si>
-  <si>
-    <t>CRIF</t>
-  </si>
-  <si>
-    <t>WMLQ</t>
-  </si>
-  <si>
-    <t>GGRR</t>
-  </si>
-  <si>
-    <t>VLVS</t>
-  </si>
-  <si>
-    <t>WQKK</t>
-  </si>
-  <si>
-    <t>YFYF</t>
-  </si>
-  <si>
-    <t>LCTA</t>
-  </si>
-  <si>
-    <t>LQKA</t>
-  </si>
-  <si>
-    <t>LWLK</t>
-  </si>
-  <si>
-    <t>LCRC</t>
-  </si>
-  <si>
-    <t>RKPV</t>
-  </si>
-  <si>
-    <t>YRHY</t>
-  </si>
-  <si>
-    <t>THRR</t>
-  </si>
-  <si>
-    <t>SMKR</t>
-  </si>
-  <si>
-    <t>DIML</t>
-  </si>
-  <si>
-    <t>PGCL</t>
-  </si>
-  <si>
-    <t>CGNK</t>
-  </si>
-  <si>
-    <t>LHYA</t>
-  </si>
-  <si>
-    <t>CFVT</t>
-  </si>
-  <si>
-    <t>FIIQ</t>
-  </si>
-  <si>
-    <t>RYKG</t>
-  </si>
-  <si>
-    <t>GTPK</t>
-  </si>
-  <si>
-    <t>ILKM</t>
-  </si>
-  <si>
-    <t>HYCK</t>
-  </si>
-  <si>
-    <t>PNKL</t>
-  </si>
-  <si>
-    <t>WYLH</t>
-  </si>
-  <si>
-    <t>LLLQ</t>
-  </si>
-  <si>
-    <t>RAES</t>
-  </si>
-  <si>
-    <t>YFDR</t>
-  </si>
-  <si>
-    <t>KRQY</t>
+    <t>CRRR</t>
+  </si>
+  <si>
+    <t>QKKW</t>
+  </si>
+  <si>
+    <t>RSQK</t>
+  </si>
+  <si>
+    <t>MVLF</t>
+  </si>
+  <si>
+    <t>CVCH</t>
   </si>
 </sst>
 </file>
@@ -2223,19 +2193,19 @@
         <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>384</v>
+        <v>641</v>
       </c>
       <c r="F2">
-        <v>0.8384279475982532</v>
+        <v>0.7884378843788438</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2246,16 +2216,16 @@
         <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1063</v>
+        <v>206</v>
       </c>
       <c r="F3">
-        <v>0.8734593262119967</v>
+        <v>0.9363636363636364</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2269,16 +2239,16 @@
         <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="F4">
-        <v>0.9397590361445783</v>
+        <v>0.9441860465116279</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2292,19 +2262,19 @@
         <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>0.87248322147651</v>
+        <v>0.3422982885085575</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2315,19 +2285,19 @@
         <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>311</v>
+        <v>627</v>
       </c>
       <c r="F6">
-        <v>0.7660098522167488</v>
+        <v>0.7997448979591837</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2338,19 +2308,19 @@
         <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="F7">
-        <v>0.3744292237442922</v>
+        <v>0.9174603174603174</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2361,16 +2331,16 @@
         <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="F8">
-        <v>0.6819407008086253</v>
+        <v>0.919889502762431</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2384,19 +2354,19 @@
         <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4470</v>
+        <v>760</v>
       </c>
       <c r="F9">
-        <v>0.9719504240052185</v>
+        <v>0.6446140797285835</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2407,19 +2377,19 @@
         <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>458</v>
+        <v>194</v>
       </c>
       <c r="F10">
-        <v>0.906930693069307</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2430,16 +2400,16 @@
         <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="F11">
-        <v>0.9625468164794008</v>
+        <v>0.9451114922813036</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -2453,19 +2423,19 @@
         <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="F12">
-        <v>0.8976377952755905</v>
+        <v>0.3747368421052631</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2476,19 +2446,19 @@
         <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="F13">
-        <v>0.47</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2499,19 +2469,19 @@
         <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>254</v>
+        <v>498</v>
       </c>
       <c r="F14">
-        <v>0.8788927335640139</v>
+        <v>0.9413988657844991</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2522,19 +2492,19 @@
         <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>871</v>
+        <v>1142</v>
       </c>
       <c r="F15">
-        <v>0.8915046059365405</v>
+        <v>0.9092356687898089</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2545,19 +2515,19 @@
         <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="F16">
-        <v>0.9647577092511013</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2568,19 +2538,19 @@
         <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="F17">
-        <v>0.4691588785046729</v>
+        <v>0.9289099526066351</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2591,19 +2561,19 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>381</v>
       </c>
       <c r="F18">
-        <v>0.03758389261744966</v>
+        <v>0.6684210526315789</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2614,19 +2584,19 @@
         <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>545</v>
+        <v>363</v>
       </c>
       <c r="F19">
-        <v>0.8515625</v>
+        <v>0.632404181184669</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2637,19 +2607,19 @@
         <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>668</v>
+        <v>1270</v>
       </c>
       <c r="F20">
-        <v>0.8126520681265207</v>
+        <v>0.9860248447204969</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2660,19 +2630,19 @@
         <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>640</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>0.7646356033452808</v>
+        <v>0.04</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2680,22 +2650,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>317</v>
+        <v>1131</v>
       </c>
       <c r="F22">
-        <v>0.428958051420839</v>
+        <v>0.9120967741935484</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2703,22 +2673,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1075</v>
+        <v>135</v>
       </c>
       <c r="F23">
-        <v>0.9871441689623508</v>
+        <v>0.2738336713995943</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2726,22 +2696,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>114</v>
+        <v>322</v>
       </c>
       <c r="F24">
-        <v>0.6229508196721312</v>
+        <v>0.9669669669669669</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2749,22 +2719,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>653</v>
+        <v>473</v>
       </c>
       <c r="F25">
-        <v>0.9532846715328467</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2772,22 +2742,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F26">
-        <v>0.4545454545454545</v>
+        <v>0.8029197080291971</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2795,19 +2765,19 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>253</v>
+        <v>1221</v>
       </c>
       <c r="F27">
-        <v>0.8135048231511254</v>
+        <v>0.6628664495114006</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2818,22 +2788,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>71</v>
+        <v>428</v>
       </c>
       <c r="F28">
-        <v>0.7319587628865979</v>
+        <v>0.8262548262548263</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2841,22 +2811,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="F29">
-        <v>0.61875</v>
+        <v>0.4522184300341297</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2864,22 +2834,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C30" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="F30">
-        <v>0.75</v>
+        <v>0.9292364990689013</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2887,22 +2857,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>78</v>
+        <v>1105</v>
       </c>
       <c r="F31">
-        <v>0.1529411764705882</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2910,22 +2880,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="F32">
-        <v>0.814922480620155</v>
+        <v>0.7270624518118736</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2933,22 +2903,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>102</v>
+        <v>653</v>
       </c>
       <c r="F33">
-        <v>0.5543478260869565</v>
+        <v>0.627281460134486</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2956,22 +2926,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="F34">
-        <v>0.9197530864197531</v>
+        <v>0.6233480176211453</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2979,22 +2949,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>802</v>
+        <v>366</v>
       </c>
       <c r="F35">
-        <v>0.9780487804878049</v>
+        <v>0.9336734693877551</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3002,22 +2972,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>841</v>
+        <v>179</v>
       </c>
       <c r="F36">
-        <v>0.6916118421052632</v>
+        <v>0.7617021276595745</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3025,22 +2995,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="F37">
-        <v>0.9357142857142857</v>
+        <v>0.8790322580645161</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3048,22 +3018,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F38">
-        <v>0.530373831775701</v>
+        <v>0.7581227436823105</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3071,22 +3041,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="F39">
-        <v>0.8416666666666667</v>
+        <v>0.96875</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3094,22 +3064,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>687</v>
+        <v>67</v>
       </c>
       <c r="F40">
-        <v>0.9475862068965517</v>
+        <v>0.0950354609929078</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3117,22 +3087,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="F41">
-        <v>0.8765923566878981</v>
+        <v>0.8742949234488316</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3140,19 +3110,19 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>779</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>0.7512054001928641</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -3163,22 +3133,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1682</v>
+        <v>253</v>
       </c>
       <c r="F43">
-        <v>0.9486745628877609</v>
+        <v>0.7955974842767296</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3186,22 +3156,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>652</v>
+        <v>402</v>
       </c>
       <c r="F44">
-        <v>0.9863842662632375</v>
+        <v>0.9503546099290781</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3209,22 +3179,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>584</v>
+        <v>363</v>
       </c>
       <c r="F45">
-        <v>0.9040247678018576</v>
+        <v>0.8344827586206897</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3232,19 +3202,19 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="F46">
-        <v>0.9287833827893175</v>
+        <v>0.5242537313432836</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -3255,22 +3225,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>255</v>
+        <v>923</v>
       </c>
       <c r="F47">
-        <v>0.9770114942528736</v>
+        <v>0.8987341772151899</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3278,19 +3248,19 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>730</v>
+        <v>55</v>
       </c>
       <c r="F48">
-        <v>0.9668874172185431</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="G48">
         <v>6</v>
@@ -3301,22 +3271,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>87</v>
+        <v>872</v>
       </c>
       <c r="F49">
-        <v>0.2127139364303179</v>
+        <v>0.852394916911046</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3324,22 +3294,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>582</v>
+        <v>810</v>
       </c>
       <c r="F50">
-        <v>0.9540983606557377</v>
+        <v>0.9735576923076923</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3347,22 +3317,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="F51">
-        <v>0.9976958525345622</v>
+        <v>0.8427672955974843</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3370,22 +3340,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>646</v>
+        <v>280</v>
       </c>
       <c r="F52">
-        <v>0.7644970414201183</v>
+        <v>0.6073752711496746</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3393,22 +3363,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="F53">
-        <v>0.8910256410256411</v>
+        <v>0.8598901098901099</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3416,22 +3386,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>658</v>
+        <v>425</v>
       </c>
       <c r="F54">
-        <v>0.7842669845053635</v>
+        <v>0.7741347905282332</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3439,22 +3409,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1128</v>
+        <v>78</v>
       </c>
       <c r="F55">
-        <v>0.9783174327840416</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3462,22 +3432,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>2314</v>
+        <v>1147</v>
       </c>
       <c r="F56">
-        <v>0.9319371727748691</v>
+        <v>0.9606365159128978</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3485,22 +3455,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="F57">
-        <v>0.1474201474201474</v>
+        <v>0.6411149825783972</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3508,19 +3478,19 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>786</v>
+        <v>382</v>
       </c>
       <c r="F58">
-        <v>0.9055299539170507</v>
+        <v>0.9646464646464646</v>
       </c>
       <c r="G58">
         <v>6</v>
@@ -3531,19 +3501,19 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1747</v>
+        <v>48</v>
       </c>
       <c r="F59">
-        <v>0.9170603674540683</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="G59">
         <v>6</v>
@@ -3554,22 +3524,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="F60">
-        <v>0.8237547892720306</v>
+        <v>0.9195046439628483</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3577,22 +3547,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>70</v>
+        <v>419</v>
       </c>
       <c r="F61">
-        <v>0.9459459459459459</v>
+        <v>0.8248031496062992</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3600,22 +3570,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>512</v>
+        <v>137</v>
       </c>
       <c r="F62">
-        <v>0.9961089494163424</v>
+        <v>0.7527472527472527</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3623,22 +3593,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F63">
-        <v>0.110803324099723</v>
+        <v>0.1106870229007634</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3646,22 +3616,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C64" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>278</v>
+        <v>59</v>
       </c>
       <c r="F64">
-        <v>0.9858156028368794</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3669,22 +3639,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="F65">
-        <v>0.5857988165680473</v>
+        <v>0.9353233830845771</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3692,22 +3662,22 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C66" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>580</v>
+        <v>191</v>
       </c>
       <c r="F66">
-        <v>0.5811623246492986</v>
+        <v>0.5701492537313433</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3715,22 +3685,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="F67">
-        <v>0.7041800643086816</v>
+        <v>0.4111922141119221</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3738,22 +3708,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>224</v>
+        <v>1266</v>
       </c>
       <c r="F68">
-        <v>0.9696969696969697</v>
+        <v>0.9678899082568807</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3761,22 +3731,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>754</v>
+        <v>1664</v>
       </c>
       <c r="F69">
-        <v>0.8747099767981439</v>
+        <v>0.9736688121708601</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3784,22 +3754,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1577</v>
+        <v>159</v>
       </c>
       <c r="F70">
-        <v>0.9819427148194272</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3807,22 +3777,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1123</v>
+        <v>168</v>
       </c>
       <c r="F71">
-        <v>0.9049153908138597</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3830,22 +3800,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C72" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>940</v>
+        <v>327</v>
       </c>
       <c r="F72">
-        <v>0.8568824065633546</v>
+        <v>0.8537859007832899</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3853,22 +3823,22 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C73" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>464</v>
+        <v>189</v>
       </c>
       <c r="F73">
-        <v>0.9646569646569647</v>
+        <v>0.7</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3876,22 +3846,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="F74">
-        <v>0.8942307692307693</v>
+        <v>0.5649717514124294</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3899,22 +3869,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C75" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F75">
-        <v>0.2803180914512923</v>
+        <v>0.3482309124767226</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3922,22 +3892,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>568</v>
+        <v>680</v>
       </c>
       <c r="F76">
-        <v>0.9372937293729373</v>
+        <v>0.6960081883316275</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3945,22 +3915,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>855</v>
+        <v>276</v>
       </c>
       <c r="F77">
-        <v>0.7793983591613491</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3968,22 +3938,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C78" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>691</v>
+        <v>165</v>
       </c>
       <c r="F78">
-        <v>0.8355501813784765</v>
+        <v>0.6273764258555133</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3991,19 +3961,19 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C79" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>402</v>
+        <v>86</v>
       </c>
       <c r="F79">
-        <v>0.4317937701396348</v>
+        <v>0.6564885496183206</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -4014,22 +3984,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>42</v>
+        <v>759</v>
       </c>
       <c r="F80">
-        <v>0.06025824964131994</v>
+        <v>0.8396017699115044</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4037,22 +4007,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2161</v>
+        <v>776</v>
       </c>
       <c r="F81">
-        <v>0.9760614272809395</v>
+        <v>0.8670391061452514</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4060,22 +4030,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C82" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1107</v>
+        <v>501</v>
       </c>
       <c r="F82">
-        <v>0.9373412362404742</v>
+        <v>0.9862204724409449</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4083,19 +4053,19 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C83" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>138</v>
+        <v>4465</v>
       </c>
       <c r="F83">
-        <v>0.9517241379310345</v>
+        <v>0.9708632311372037</v>
       </c>
       <c r="G83">
         <v>6</v>
@@ -4106,22 +4076,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="F84">
-        <v>0.7057692307692308</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4129,22 +4099,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1140</v>
+        <v>870</v>
       </c>
       <c r="F85">
-        <v>0.9076433121019108</v>
+        <v>0.932475884244373</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4152,22 +4122,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C86" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="F86">
-        <v>0.8891891891891892</v>
+        <v>0.8819875776397516</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4175,22 +4145,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C87" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>671</v>
+        <v>329</v>
       </c>
       <c r="F87">
-        <v>0.5129969418960245</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4198,22 +4168,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C88" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>561</v>
+        <v>346</v>
       </c>
       <c r="F88">
-        <v>0.5747950819672131</v>
+        <v>0.9719101123595506</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4221,22 +4191,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C89" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F89">
-        <v>0.5345911949685535</v>
+        <v>0.1796116504854369</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4244,22 +4214,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="F90">
-        <v>0.2585470085470086</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4267,22 +4237,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>143</v>
+        <v>712</v>
       </c>
       <c r="F91">
-        <v>0.9862068965517241</v>
+        <v>0.7655913978494624</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4290,22 +4260,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="F92">
-        <v>0.9634146341463414</v>
+        <v>0.4525080042689434</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4313,22 +4283,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C93" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>123</v>
+        <v>747</v>
       </c>
       <c r="F93">
-        <v>0.7109826589595376</v>
+        <v>0.9360902255639098</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4336,22 +4306,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C94" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>45</v>
+        <v>3251</v>
       </c>
       <c r="F94">
-        <v>0.2307692307692308</v>
+        <v>0.9783328317785134</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4359,19 +4329,19 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C95" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>870</v>
+        <v>563</v>
       </c>
       <c r="F95">
-        <v>0.932475884244373</v>
+        <v>0.905144694533762</v>
       </c>
       <c r="G95">
         <v>6</v>
@@ -4382,22 +4352,22 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>715</v>
+        <v>1444</v>
       </c>
       <c r="F96">
-        <v>0.7550158394931362</v>
+        <v>0.9769959404600812</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4405,22 +4375,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="F97">
-        <v>0.5454545454545454</v>
+        <v>0.7472527472527473</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4428,22 +4398,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C98" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>0.6419753086419753</v>
+        <v>0.132013201320132</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4451,22 +4421,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C99" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>405</v>
+        <v>604</v>
       </c>
       <c r="F99">
-        <v>0.680672268907563</v>
+        <v>0.9292307692307692</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4474,22 +4444,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C100" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1054</v>
+        <v>364</v>
       </c>
       <c r="F100">
-        <v>0.6506172839506172</v>
+        <v>0.8367816091954023</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4497,22 +4467,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F101">
-        <v>0.4934210526315789</v>
+        <v>0.06177606177606178</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4520,22 +4490,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C102" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>712</v>
+        <v>170</v>
       </c>
       <c r="F102">
-        <v>0.7623126338329764</v>
+        <v>0.4009433962264151</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4543,22 +4513,22 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C103" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="F103">
-        <v>0.9210266535044422</v>
+        <v>0.9784110535405872</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4566,22 +4536,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>247</v>
+        <v>1603</v>
       </c>
       <c r="F104">
-        <v>0.9285714285714286</v>
+        <v>0.9429411764705883</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4589,22 +4559,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C105" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="F105">
-        <v>0.9068493150684932</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4612,22 +4582,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C106" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F106">
-        <v>0.1038732394366197</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4635,22 +4605,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C107" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F107">
-        <v>0.2862823061630219</v>
+        <v>0.2355555555555555</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4658,22 +4628,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1179</v>
+        <v>605</v>
       </c>
       <c r="F108">
-        <v>0.9</v>
+        <v>0.9250764525993884</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4681,22 +4651,22 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1105</v>
+        <v>610</v>
       </c>
       <c r="F109">
-        <v>0.8861267040898155</v>
+        <v>0.6015779092702169</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4704,22 +4674,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>191</v>
+        <v>549</v>
       </c>
       <c r="F110">
-        <v>0.6631944444444444</v>
+        <v>0.9273648648648649</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4727,22 +4697,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C111" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="F111">
-        <v>0.8574144486692015</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4750,19 +4720,19 @@
         <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>432</v>
+        <v>51</v>
       </c>
       <c r="F112">
-        <v>0.9578713968957872</v>
+        <v>0.51</v>
       </c>
       <c r="G112">
         <v>6</v>
@@ -4773,22 +4743,22 @@
         <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C113" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F113">
-        <v>0.4665178571428572</v>
+        <v>0.9398496240601504</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4796,22 +4766,22 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C114" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>3089</v>
+        <v>215</v>
       </c>
       <c r="F114">
-        <v>0.9209898628503279</v>
+        <v>0.3631756756756757</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4819,22 +4789,22 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="C115" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1119</v>
+        <v>943</v>
       </c>
       <c r="F115">
-        <v>0.7743944636678201</v>
+        <v>0.7253846153846154</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4842,19 +4812,19 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>1253</v>
+        <v>383</v>
       </c>
       <c r="F116">
-        <v>0.9092888243831641</v>
+        <v>0.8362445414847162</v>
       </c>
       <c r="G116">
         <v>6</v>
@@ -4865,19 +4835,19 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C117" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>1843</v>
+        <v>425</v>
       </c>
       <c r="F117">
-        <v>0.9924609585352719</v>
+        <v>0.9081196581196581</v>
       </c>
       <c r="G117">
         <v>6</v>
@@ -4888,22 +4858,22 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C118" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="F118">
-        <v>0.8717948717948718</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4911,22 +4881,22 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C119" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>650</v>
+        <v>396</v>
       </c>
       <c r="F119">
-        <v>0.9715994020926756</v>
+        <v>0.4817518248175183</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4934,22 +4904,22 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C120" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>398</v>
+        <v>168</v>
       </c>
       <c r="F120">
-        <v>0.9683698296836983</v>
+        <v>0.8</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4957,19 +4927,19 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C121" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F121">
-        <v>0.9752066115702479</v>
+        <v>0.7617328519855595</v>
       </c>
       <c r="G121">
         <v>6</v>
@@ -4980,22 +4950,22 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C122" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>818</v>
+        <v>2782</v>
       </c>
       <c r="F122">
-        <v>0.9831730769230769</v>
+        <v>0.9893314366998578</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5003,22 +4973,22 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>182</v>
+        <v>738</v>
       </c>
       <c r="F123">
-        <v>0.5852090032154341</v>
+        <v>0.9906040268456375</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5026,22 +4996,22 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
-        <v>528</v>
+        <v>354</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>42</v>
+        <v>711</v>
       </c>
       <c r="F124">
-        <v>0.5</v>
+        <v>0.7653390742734123</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5049,22 +5019,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>29</v>
+        <v>2317</v>
       </c>
       <c r="F125">
-        <v>0.4142857142857143</v>
+        <v>0.9331453886427709</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5072,22 +5042,22 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C126" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="F126">
-        <v>0.3711340206185567</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5095,22 +5065,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C127" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>453</v>
+        <v>2098</v>
       </c>
       <c r="F127">
-        <v>0.937888198757764</v>
+        <v>0.9730983302411874</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5118,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C128" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>432</v>
+        <v>563</v>
       </c>
       <c r="F128">
-        <v>0.8944099378881988</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5141,22 +5111,22 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C129" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="F129">
-        <v>0.944578313253012</v>
+        <v>0.8618042226487524</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5164,22 +5134,22 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C130" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1290</v>
+        <v>264</v>
       </c>
       <c r="F130">
-        <v>0.6701298701298701</v>
+        <v>0.974169741697417</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5187,22 +5157,22 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F131">
-        <v>0.7027027027027027</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5210,19 +5180,19 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C132" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F132">
-        <v>0.3270676691729323</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="G132">
         <v>6</v>
@@ -5233,22 +5203,22 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C133" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>1465</v>
       </c>
       <c r="F133">
-        <v>0.05181347150259067</v>
+        <v>0.7459266802443992</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5256,22 +5226,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C134" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="F134">
-        <v>0.9636803874092009</v>
+        <v>0.8657718120805369</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5279,22 +5249,22 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="F135">
-        <v>0.3887043189368771</v>
+        <v>0.9366515837104072</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5302,22 +5272,22 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C136" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="F136">
-        <v>0.5291666666666667</v>
+        <v>0.4087591240875912</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5325,22 +5295,22 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C137" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>188</v>
+        <v>661</v>
       </c>
       <c r="F137">
-        <v>0.5611940298507463</v>
+        <v>0.812039312039312</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5348,22 +5318,22 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="F138">
-        <v>0.5283018867924528</v>
+        <v>0.9376181474480151</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5371,22 +5341,22 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C139" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="F139">
-        <v>0.2984293193717277</v>
+        <v>0.5112612612612613</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5394,19 +5364,19 @@
         <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>1133</v>
+        <v>202</v>
       </c>
       <c r="F140">
-        <v>0.9826539462272333</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="G140">
         <v>6</v>
@@ -5417,19 +5387,19 @@
         <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C141" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>464</v>
+        <v>149</v>
       </c>
       <c r="F141">
-        <v>0.6507713884992987</v>
+        <v>0.295049504950495</v>
       </c>
       <c r="G141">
         <v>6</v>
@@ -5440,22 +5410,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C142" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>269</v>
+        <v>837</v>
       </c>
       <c r="F142">
-        <v>0.5133587786259542</v>
+        <v>0.811046511627907</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5463,22 +5433,22 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143">
-        <v>559</v>
+        <v>926</v>
       </c>
       <c r="F143">
-        <v>0.9604810996563574</v>
+        <v>0.9819724284199364</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5486,22 +5456,22 @@
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>172</v>
+        <v>645</v>
       </c>
       <c r="F144">
-        <v>0.8557213930348259</v>
+        <v>0.9641255605381166</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5509,22 +5479,22 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>44</v>
+        <v>786</v>
       </c>
       <c r="F145">
-        <v>0.4680851063829787</v>
+        <v>0.9055299539170507</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5532,22 +5502,22 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>209</v>
+        <v>1882</v>
       </c>
       <c r="F146">
-        <v>0.806949806949807</v>
+        <v>0.8018747337025991</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5555,22 +5525,22 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>682</v>
+        <v>622</v>
       </c>
       <c r="F147">
-        <v>0.9912790697674418</v>
+        <v>0.9749216300940439</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5578,22 +5548,22 @@
         <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C148" t="s">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>330</v>
+        <v>774</v>
       </c>
       <c r="F148">
-        <v>0.8943089430894309</v>
+        <v>0.5378735232800556</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5601,22 +5571,22 @@
         <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="C149" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="F149">
-        <v>0.9695652173913043</v>
+        <v>0.7922330097087379</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5624,22 +5594,22 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C150" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="F150">
-        <v>0.9875389408099688</v>
+        <v>0.705607476635514</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5647,22 +5617,22 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C151" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>653</v>
+        <v>332</v>
       </c>
       <c r="F151">
-        <v>0.9849170437405732</v>
+        <v>0.9171270718232044</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5670,22 +5640,22 @@
         <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="F152">
-        <v>0.5869565217391305</v>
+        <v>0.6182212581344902</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5693,22 +5663,22 @@
         <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C153" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>566</v>
+        <v>258</v>
       </c>
       <c r="F153">
-        <v>0.5757884028484231</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5716,22 +5686,22 @@
         <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C154" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>360</v>
+        <v>1137</v>
       </c>
       <c r="F154">
-        <v>0.8144796380090498</v>
+        <v>0.9810181190681622</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5739,22 +5709,22 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C155" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F155">
-        <v>0.8392156862745098</v>
+        <v>0.9653679653679653</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5762,22 +5732,22 @@
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C156" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>916</v>
+        <v>256</v>
       </c>
       <c r="F156">
-        <v>0.9511941848390446</v>
+        <v>0.9446494464944649</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5785,22 +5755,22 @@
         <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C157" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>513</v>
+        <v>689</v>
       </c>
       <c r="F157">
-        <v>0.9808795411089866</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5808,22 +5778,22 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C158" t="s">
-        <v>562</v>
+        <v>441</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F158">
-        <v>0.340393343419062</v>
+        <v>0.7981366459627329</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5831,22 +5801,22 @@
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C159" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F159">
-        <v>0.07344632768361582</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5854,22 +5824,22 @@
         <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C160" t="s">
-        <v>284</v>
+        <v>554</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="F160">
-        <v>0.4274973147153598</v>
+        <v>0.9450980392156862</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5877,19 +5847,19 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C161" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="F161">
-        <v>0.5211267605633803</v>
+        <v>0.9723926380368099</v>
       </c>
       <c r="G161">
         <v>6</v>
@@ -5900,19 +5870,19 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C162" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>1225</v>
+        <v>711</v>
       </c>
       <c r="F162">
-        <v>0.9162303664921466</v>
+        <v>0.9429708222811671</v>
       </c>
       <c r="G162">
         <v>6</v>
@@ -5923,22 +5893,22 @@
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C163" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163">
-        <v>69</v>
+        <v>650</v>
       </c>
       <c r="F163">
-        <v>0.5227272727272727</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5946,19 +5916,19 @@
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C164" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="F164">
-        <v>0.7106017191977078</v>
+        <v>0.84688995215311</v>
       </c>
       <c r="G164">
         <v>6</v>
@@ -5969,22 +5939,22 @@
         <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C165" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>493</v>
+        <v>133</v>
       </c>
       <c r="F165">
-        <v>0.4449458483754513</v>
+        <v>0.2697768762677485</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5992,22 +5962,22 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C166" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="F166">
-        <v>0.7475728155339806</v>
+        <v>0.8952380952380953</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6015,22 +5985,22 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C167" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>96</v>
+        <v>561</v>
       </c>
       <c r="F167">
-        <v>0.5485714285714286</v>
+        <v>0.893312101910828</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6038,22 +6008,22 @@
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C168" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>178</v>
+        <v>426</v>
       </c>
       <c r="F168">
-        <v>0.827906976744186</v>
+        <v>0.4517497348886532</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6061,19 +6031,19 @@
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C169" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>31</v>
+        <v>765</v>
       </c>
       <c r="F169">
-        <v>0.3369565217391304</v>
+        <v>0.5268595041322314</v>
       </c>
       <c r="G169">
         <v>6</v>
@@ -6084,22 +6054,22 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C170" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="F170">
-        <v>0.7398273736128237</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6107,22 +6077,22 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C171" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F171">
-        <v>0.4285714285714285</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6130,22 +6100,22 @@
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="C172" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>92</v>
+        <v>868</v>
       </c>
       <c r="F172">
-        <v>0.6764705882352942</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6153,22 +6123,22 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C173" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="F173">
-        <v>0.0396600566572238</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6176,22 +6146,22 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C174" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>700</v>
+        <v>123</v>
       </c>
       <c r="F174">
-        <v>0.8363201911589009</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6199,22 +6169,22 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C175" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1394</v>
+        <v>339</v>
       </c>
       <c r="F175">
-        <v>0.7130434782608696</v>
+        <v>0.9442896935933147</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6222,19 +6192,19 @@
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C176" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>555</v>
+        <v>990</v>
       </c>
       <c r="F176">
-        <v>0.5018083182640145</v>
+        <v>0.9658536585365853</v>
       </c>
       <c r="G176">
         <v>6</v>
@@ -6245,22 +6215,22 @@
         <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C177" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>944</v>
+        <v>259</v>
       </c>
       <c r="F177">
-        <v>0.9496981891348089</v>
+        <v>0.8633333333333333</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6268,22 +6238,22 @@
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C178" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="F178">
-        <v>0.08813559322033898</v>
+        <v>0.632688927943761</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6291,22 +6261,22 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C179" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>104</v>
+        <v>720</v>
       </c>
       <c r="F179">
-        <v>0.4502164502164502</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6314,22 +6284,22 @@
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C180" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>952</v>
+        <v>52</v>
       </c>
       <c r="F180">
-        <v>0.6848920863309352</v>
+        <v>0.1347150259067358</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6337,22 +6307,22 @@
         <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C181" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>397</v>
+        <v>1180</v>
       </c>
       <c r="F181">
-        <v>0.9520383693045563</v>
+        <v>0.9609120521172638</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6360,22 +6330,22 @@
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C182" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="F182">
-        <v>0.5157657657657657</v>
+        <v>0.6028368794326241</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6383,22 +6353,22 @@
         <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C183" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="F183">
-        <v>0.1786941580756014</v>
+        <v>0.6727748691099477</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6406,19 +6376,19 @@
         <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C184" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="F184">
-        <v>0.7774725274725275</v>
+        <v>0.9658119658119658</v>
       </c>
       <c r="G184">
         <v>6</v>
@@ -6429,22 +6399,22 @@
         <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C185" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F185">
-        <v>0.398989898989899</v>
+        <v>0.94921875</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6452,22 +6422,22 @@
         <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C186" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="F186">
-        <v>0.6341463414634146</v>
+        <v>0.4640883977900552</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6475,22 +6445,22 @@
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C187" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>415</v>
+        <v>752</v>
       </c>
       <c r="F187">
-        <v>0.9741784037558685</v>
+        <v>0.8734030197444832</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6498,22 +6468,22 @@
         <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C188" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="F188">
-        <v>0.7588832487309645</v>
+        <v>0.9635416666666666</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6521,22 +6491,22 @@
         <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C189" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D189">
         <v>0</v>
       </c>
       <c r="E189">
-        <v>593</v>
+        <v>227</v>
       </c>
       <c r="F189">
-        <v>0.8079019073569482</v>
+        <v>0.8832684824902723</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6544,22 +6514,22 @@
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C190" t="s">
-        <v>593</v>
+        <v>480</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>3921</v>
+        <v>273</v>
       </c>
       <c r="F190">
-        <v>0.9778054862842893</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6567,22 +6537,22 @@
         <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C191" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>237</v>
+        <v>663</v>
       </c>
       <c r="F191">
-        <v>0.9294117647058824</v>
+        <v>0.7883472057074911</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6590,22 +6560,22 @@
         <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C192" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>1310</v>
+        <v>51</v>
       </c>
       <c r="F192">
-        <v>0.9458483754512635</v>
+        <v>0.5</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6613,22 +6583,22 @@
         <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C193" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>565</v>
+        <v>248</v>
       </c>
       <c r="F193">
-        <v>0.9707903780068728</v>
+        <v>0.7447447447447447</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6636,22 +6606,22 @@
         <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C194" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>348</v>
+        <v>1146</v>
       </c>
       <c r="F194">
-        <v>0.6258992805755396</v>
+        <v>0.9095238095238095</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6659,22 +6629,22 @@
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C195" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>177</v>
+        <v>515</v>
       </c>
       <c r="F195">
-        <v>0.3327067669172932</v>
+        <v>0.9753787878787878</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6682,22 +6652,22 @@
         <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C196" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>545</v>
+        <v>691</v>
       </c>
       <c r="F196">
-        <v>0.7445355191256831</v>
+        <v>0.8355501813784765</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6705,22 +6675,22 @@
         <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C197" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F197">
-        <v>0.6616161616161617</v>
+        <v>0.9238095238095239</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6728,22 +6698,22 @@
         <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C198" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>39</v>
+        <v>450</v>
       </c>
       <c r="F198">
-        <v>0.1659574468085106</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6751,22 +6721,22 @@
         <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C199" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>1293</v>
+        <v>249</v>
       </c>
       <c r="F199">
-        <v>0.676255230125523</v>
+        <v>0.939622641509434</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6774,22 +6744,22 @@
         <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C200" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>22</v>
+        <v>384</v>
       </c>
       <c r="F200">
-        <v>0.1517241379310345</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6797,22 +6767,22 @@
         <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C201" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>1134</v>
+        <v>656</v>
       </c>
       <c r="F201">
-        <v>0.9835212489158717</v>
+        <v>0.5883408071748879</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
